--- a/Master OA Data Sheet.xlsx
+++ b/Master OA Data Sheet.xlsx
@@ -1,24 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lloydatrueblood/Desktop/Desktop files/Muusoctopus_leioderma_respiration/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C67F14-7CBA-E04C-87E3-F11F600D9444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37360" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C32">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">There was trouble with our tank pH today that led to off measurements. I don't think we had an octopus in this tank at that time.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>There was trouble with our tank pH today that led to off measurements. I don't think we had an octopus in this tank at that time.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -99,65 +115,85 @@
   <si>
     <t>alkalinity</t>
   </si>
+  <si>
+    <t>Alkalinity std</t>
+  </si>
+  <si>
+    <t>%STD of total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="m\-d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Lucida Sans&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Lucida Sans&quot;"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Monaco"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,148 +227,115 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -522,28 +525,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158:J158"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="15.57"/>
-    <col customWidth="1" min="4" max="4" width="22.29"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
-    <col customWidth="1" min="7" max="7" width="15.43"/>
-    <col customWidth="1" min="8" max="9" width="15.57"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="7" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,36 +595,36 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>44386.0</v>
+        <v>44386</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>7.72752373</v>
+        <v>7.7275237299999997</v>
       </c>
       <c r="D2" s="4">
-        <v>7.64485714</v>
+        <v>7.6448571400000001</v>
       </c>
       <c r="E2" s="1">
-        <v>7.671</v>
+        <v>7.6710000000000003</v>
       </c>
       <c r="F2" s="1">
-        <v>7.601336508</v>
+        <v>7.6013365080000002</v>
       </c>
       <c r="G2" s="1">
-        <v>7.441347593</v>
+        <v>7.4413475929999997</v>
       </c>
       <c r="H2" s="4">
-        <v>7.43060038</v>
+        <v>7.4306003799999996</v>
       </c>
       <c r="I2" s="1">
-        <v>7.302</v>
+        <v>7.3019999999999996</v>
       </c>
       <c r="J2" s="1">
-        <v>7.49176210768</v>
+        <v>7.4917621076799996</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
@@ -633,34 +640,34 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>0.00203498231</v>
+        <v>2.0349823099999999E-3</v>
       </c>
       <c r="D3" s="5">
-        <v>0.0020420134</v>
+        <v>2.0420134000000002E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00204226008</v>
+        <v>2.0422600799999998E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>0.002036427</v>
+        <v>2.0364269999999999E-3</v>
       </c>
       <c r="G3" s="1">
-        <v>0.00201837066</v>
+        <v>2.0183706600000002E-3</v>
       </c>
       <c r="H3" s="6">
-        <v>0.0020338481</v>
+        <v>2.0338481E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>0.00200504349</v>
+        <v>2.00504349E-3</v>
       </c>
       <c r="J3" s="1">
-        <v>0.00197726024</v>
+        <v>1.9772602400000001E-3</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
@@ -676,28 +683,28 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>827.5533</v>
+        <v>827.55330000000004</v>
       </c>
       <c r="D4" s="4">
         <v>1030.42443</v>
       </c>
       <c r="E4" s="1">
-        <v>753.578029</v>
+        <v>753.57802900000002</v>
       </c>
       <c r="F4" s="1">
-        <v>1143.039989363</v>
+        <v>1143.0399893629999</v>
       </c>
       <c r="G4" s="1">
         <v>1661.5633</v>
       </c>
       <c r="H4" s="4">
-        <v>1707.76672</v>
+        <v>1707.7667200000001</v>
       </c>
       <c r="I4" s="1">
         <v>3259.69031</v>
@@ -719,7 +726,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -746,7 +753,7 @@
         <v>27.2</v>
       </c>
       <c r="J5" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
@@ -762,7 +769,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -771,25 +778,25 @@
         <v>7.65</v>
       </c>
       <c r="D6" s="4">
-        <v>7.65720122</v>
+        <v>7.6572012200000001</v>
       </c>
       <c r="E6" s="1">
-        <v>7.65598419</v>
+        <v>7.6559841899999999</v>
       </c>
       <c r="F6" s="1">
-        <v>7.656555932</v>
+        <v>7.6565559319999998</v>
       </c>
       <c r="G6" s="1">
-        <v>7.406</v>
+        <v>7.4059999999999997</v>
       </c>
       <c r="H6" s="4">
-        <v>7.40849659</v>
+        <v>7.4084965900000004</v>
       </c>
       <c r="I6" s="1">
-        <v>7.40367252</v>
+        <v>7.4036725199999998</v>
       </c>
       <c r="J6" s="1">
-        <v>7.64324558887</v>
+        <v>7.6432455888700002</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
@@ -805,70 +812,70 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="7">
-        <v>44388.0</v>
+        <v>44388</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8">
-        <v>7.705209807</v>
+        <v>7.7052098070000001</v>
       </c>
       <c r="D7" s="8">
-        <v>7.6971273469</v>
+        <v>7.6971273469000003</v>
       </c>
       <c r="E7" s="8">
-        <v>7.7391</v>
+        <v>7.7390999999999996</v>
       </c>
       <c r="F7" s="8">
-        <v>7.615075587</v>
+        <v>7.6150755869999998</v>
       </c>
       <c r="G7" s="8">
-        <v>7.493492347</v>
+        <v>7.4934923470000001</v>
       </c>
       <c r="H7" s="9">
-        <v>7.4105734</v>
+        <v>7.4105733999999996</v>
       </c>
       <c r="I7" s="8">
-        <v>7.5277</v>
+        <v>7.5277000000000003</v>
       </c>
       <c r="J7" s="8">
-        <v>7.49811372473</v>
+        <v>7.4981137247299996</v>
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="11">
-        <v>0.00203498231</v>
+        <v>2.0349823099999999E-3</v>
       </c>
       <c r="D8" s="8">
-        <v>0.0020420134</v>
+        <v>2.0420134000000002E-3</v>
       </c>
       <c r="E8" s="8">
-        <v>0.0020423</v>
+        <v>2.0422999999999999E-3</v>
       </c>
       <c r="F8" s="8">
-        <v>0.002036427</v>
+        <v>2.0364269999999999E-3</v>
       </c>
       <c r="G8" s="12">
-        <v>0.00201837066</v>
+        <v>2.0183706600000002E-3</v>
       </c>
       <c r="H8" s="9">
-        <v>0.0020338481</v>
+        <v>2.0338481E-3</v>
       </c>
       <c r="I8" s="8">
-        <v>0.002005</v>
+        <v>2.0049999999999998E-3</v>
       </c>
       <c r="J8" s="8">
-        <v>0.00197726024</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.9772602400000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -877,28 +884,28 @@
         <v>875.423</v>
       </c>
       <c r="D9" s="8">
-        <v>904.624766706</v>
+        <v>904.62476670599995</v>
       </c>
       <c r="E9" s="8">
-        <v>821.0</v>
+        <v>821</v>
       </c>
       <c r="F9" s="8">
         <v>1102.992541801</v>
       </c>
       <c r="G9" s="8">
-        <v>1449.536667</v>
+        <v>1449.5366670000001</v>
       </c>
       <c r="H9" s="9">
-        <v>1736.20762</v>
+        <v>1736.2076199999999</v>
       </c>
       <c r="I9" s="8">
-        <v>1354.0</v>
+        <v>1354</v>
       </c>
       <c r="J9" s="8">
-        <v>1416.30006599053</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1416.3000659905299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
@@ -913,7 +920,7 @@
         <v>29.3</v>
       </c>
       <c r="F10" s="8">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8">
         <v>28.4</v>
@@ -928,109 +935,109 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="D11" s="8">
-        <v>7.6559780718</v>
+        <v>7.6559780717999999</v>
       </c>
       <c r="E11" s="8">
-        <v>7.658</v>
+        <v>7.6580000000000004</v>
       </c>
       <c r="F11" s="8">
-        <v>7.655518903</v>
+        <v>7.6555189029999999</v>
       </c>
       <c r="G11" s="8">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="H11" s="9">
         <v>7.4089</v>
       </c>
       <c r="I11" s="8">
-        <v>7.409</v>
+        <v>7.4089999999999998</v>
       </c>
       <c r="J11" s="8">
         <v>7.64256705742</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="7">
-        <v>44389.0</v>
+        <v>44389</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8">
-        <v>7.711660117</v>
+        <v>7.7116601170000001</v>
       </c>
       <c r="D12" s="9">
-        <v>7.70439138</v>
+        <v>7.7043913799999997</v>
       </c>
       <c r="E12" s="8">
-        <v>7.764</v>
+        <v>7.7640000000000002</v>
       </c>
       <c r="F12" s="8">
-        <v>7.60079871889</v>
+        <v>7.6007987188900001</v>
       </c>
       <c r="G12" s="8">
-        <v>7.471</v>
+        <v>7.4710000000000001</v>
       </c>
       <c r="H12" s="9">
-        <v>7.54478957</v>
+        <v>7.5447895699999998</v>
       </c>
       <c r="I12" s="8">
-        <v>7.5043</v>
+        <v>7.5042999999999997</v>
       </c>
       <c r="J12" s="8">
-        <v>7.46812665894</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7.4681266589400002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="11">
-        <v>0.00203498231</v>
+        <v>2.0349823099999999E-3</v>
       </c>
       <c r="D13" s="9">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E13" s="8">
-        <v>0.0020423</v>
+        <v>2.0422999999999999E-3</v>
       </c>
       <c r="F13" s="8">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G13" s="12">
-        <v>0.00201837066</v>
+        <v>2.0183706600000002E-3</v>
       </c>
       <c r="H13" s="9">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I13" s="8">
-        <v>0.002005</v>
+        <v>2.0049999999999998E-3</v>
       </c>
       <c r="J13" s="8">
-        <v>0.00205612858</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2.0561285799999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="8">
-        <v>853.2563</v>
+        <v>853.25630000000001</v>
       </c>
       <c r="D14" s="9">
-        <v>878.86044</v>
+        <v>878.86044000000004</v>
       </c>
       <c r="E14" s="8">
-        <v>766.0</v>
+        <v>766</v>
       </c>
       <c r="F14" s="8">
         <v>1134.01197358638</v>
@@ -1039,16 +1046,16 @@
         <v>1524.32</v>
       </c>
       <c r="H14" s="9">
-        <v>1286.22707</v>
+        <v>1286.2270699999999</v>
       </c>
       <c r="I14" s="8">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="J14" s="8">
         <v>1565.62538067489</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>28.8</v>
       </c>
       <c r="H15" s="8">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8">
         <v>28.6</v>
@@ -1077,65 +1084,65 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="8">
-        <v>7.647</v>
+        <v>7.6470000000000002</v>
       </c>
       <c r="D16" s="9">
         <v>7.6515806</v>
       </c>
       <c r="E16" s="8">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="F16" s="8">
-        <v>7.65262537194</v>
+        <v>7.6526253719400001</v>
       </c>
       <c r="G16" s="8">
-        <v>7.402</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="H16" s="9">
-        <v>7.40468607</v>
+        <v>7.4046860700000003</v>
       </c>
       <c r="I16" s="8">
         <v>7.399</v>
       </c>
       <c r="J16" s="8">
-        <v>7.65401765465</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>7.6540176546499996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="13">
-        <v>44390.0</v>
+        <v>44390</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="14">
-        <v>7.581</v>
+        <v>7.5810000000000004</v>
       </c>
       <c r="D17" s="15">
-        <v>7.70844179517</v>
+        <v>7.7084417951699997</v>
       </c>
       <c r="E17" s="14">
-        <v>7.707</v>
+        <v>7.7069999999999999</v>
       </c>
       <c r="F17" s="16">
-        <v>7.56732548599</v>
+        <v>7.5673254859899997</v>
       </c>
       <c r="G17" s="14">
-        <v>7.408</v>
+        <v>7.4080000000000004</v>
       </c>
       <c r="H17" s="15">
-        <v>7.44038104844</v>
+        <v>7.4403810484399999</v>
       </c>
       <c r="I17" s="14">
-        <v>7.511</v>
+        <v>7.5110000000000001</v>
       </c>
       <c r="J17" s="14">
-        <v>7.56158861472</v>
+        <v>7.5615886147199998</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -1151,34 +1158,34 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="14">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D18" s="15">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E18" s="14">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F18" s="16">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G18" s="14">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H18" s="15">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I18" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J18" s="14">
-        <v>0.00205612858</v>
+        <v>2.0561285799999998E-3</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -1194,19 +1201,19 @@
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="14">
-        <v>1133.41</v>
+        <v>1133.4100000000001</v>
       </c>
       <c r="D19" s="15">
-        <v>858.24200592449</v>
+        <v>858.24200592448994</v>
       </c>
       <c r="E19" s="14">
-        <v>879.0</v>
+        <v>879</v>
       </c>
       <c r="F19" s="16">
         <v>1210.01938844453</v>
@@ -1215,13 +1222,13 @@
         <v>1786.92</v>
       </c>
       <c r="H19" s="15">
-        <v>1653.90673617507</v>
+        <v>1653.9067361750699</v>
       </c>
       <c r="I19" s="14">
-        <v>1396.0</v>
+        <v>1396</v>
       </c>
       <c r="J19" s="14">
-        <v>1235.35706307611</v>
+        <v>1235.3570630761101</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -1237,7 +1244,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="14" t="s">
         <v>13</v>
@@ -1280,7 +1287,7 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="14" t="s">
         <v>14</v>
@@ -1292,22 +1299,22 @@
         <v>7.64599769302</v>
       </c>
       <c r="E21" s="14">
-        <v>7.653</v>
+        <v>7.6529999999999996</v>
       </c>
       <c r="F21" s="16">
-        <v>7.64578260249</v>
+        <v>7.6457826024899997</v>
       </c>
       <c r="G21" s="14">
-        <v>7.409</v>
+        <v>7.4089999999999998</v>
       </c>
       <c r="H21" s="15">
-        <v>7.40492338616</v>
+        <v>7.4049233861600001</v>
       </c>
       <c r="I21" s="14">
         <v>7.4051</v>
       </c>
       <c r="J21" s="14">
-        <v>7.64861808191</v>
+        <v>7.6486180819099996</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
@@ -1323,68 +1330,68 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="7">
-        <v>44391.0</v>
+        <v>44391</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="8">
-        <v>7.608</v>
+        <v>7.6079999999999997</v>
       </c>
       <c r="D22" s="18">
-        <v>7.64186194502</v>
+        <v>7.6418619450199996</v>
       </c>
       <c r="E22" s="8">
-        <v>7.675</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="F22" s="8">
-        <v>7.57772694828</v>
+        <v>7.5777269482799996</v>
       </c>
       <c r="G22" s="8">
-        <v>7.447</v>
+        <v>7.4470000000000001</v>
       </c>
       <c r="H22" s="18">
-        <v>7.41109242575</v>
+        <v>7.4110924257499997</v>
       </c>
       <c r="I22" s="8">
-        <v>7.426</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="J22" s="8">
-        <v>7.53200911847</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>7.5320091184700004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="12">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D23" s="18">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E23" s="12">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F23" s="8">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G23" s="12">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H23" s="18">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I23" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J23" s="8">
-        <v>0.00205612858</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2.0561285799999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>1047.69383469029</v>
       </c>
       <c r="E24" s="8">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="F24" s="8">
         <v>1187.42645293025</v>
@@ -1404,16 +1411,16 @@
         <v>1646.47</v>
       </c>
       <c r="H24" s="18">
-        <v>1858.37219337322</v>
+        <v>1858.3721933732199</v>
       </c>
       <c r="I24" s="8">
-        <v>1712.0</v>
+        <v>1712</v>
       </c>
       <c r="J24" s="8">
-        <v>1330.86115315765</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1330.8611531576501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -1442,65 +1449,65 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="8">
-        <v>7.634</v>
+        <v>7.6340000000000003</v>
       </c>
       <c r="D26" s="18">
-        <v>7.66061093965</v>
+        <v>7.6606109396499997</v>
       </c>
       <c r="E26" s="8">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="F26" s="8">
-        <v>7.64847950761</v>
+        <v>7.6484795076100003</v>
       </c>
       <c r="G26" s="8">
         <v>7.41</v>
       </c>
       <c r="H26" s="18">
-        <v>7.42432688842</v>
+        <v>7.4243268884200004</v>
       </c>
       <c r="I26" s="8">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="J26" s="8">
-        <v>7.64996191717</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>7.6499619171699997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="13">
-        <v>44392.0</v>
+        <v>44392</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="14">
-        <v>7.624</v>
+        <v>7.6239999999999997</v>
       </c>
       <c r="D27" s="19">
-        <v>7.44508498693</v>
+        <v>7.4450849869300004</v>
       </c>
       <c r="E27" s="14">
-        <v>7.695</v>
+        <v>7.6950000000000003</v>
       </c>
       <c r="F27" s="14">
-        <v>7.68787960325</v>
+        <v>7.6878796032499999</v>
       </c>
       <c r="G27" s="14">
         <v>7.43</v>
       </c>
       <c r="H27" s="19">
-        <v>7.26108345107</v>
+        <v>7.2610834510700002</v>
       </c>
       <c r="I27" s="14">
         <v>7.38</v>
       </c>
       <c r="J27" s="14">
-        <v>7.44408380626</v>
+        <v>7.4440838062600001</v>
       </c>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
@@ -1516,34 +1523,34 @@
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="16">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D28" s="14">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E28" s="14">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F28" s="14">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G28" s="16">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H28" s="14">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I28" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J28" s="14">
-        <v>0.00205612858</v>
+        <v>2.0561285799999998E-3</v>
       </c>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -1559,7 +1566,7 @@
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14" t="s">
         <v>12</v>
@@ -1568,13 +1575,13 @@
         <v>1030.03</v>
       </c>
       <c r="D29" s="19">
-        <v>1683.71180402948</v>
+        <v>1683.7118040294799</v>
       </c>
       <c r="E29" s="14">
-        <v>904.0</v>
+        <v>904</v>
       </c>
       <c r="F29" s="14">
-        <v>928.84344696291</v>
+        <v>928.84344696290998</v>
       </c>
       <c r="G29" s="14">
         <v>1728.35</v>
@@ -1583,7 +1590,7 @@
         <v>2618.04708665509</v>
       </c>
       <c r="I29" s="14">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="J29" s="14">
         <v>1687.87187322619</v>
@@ -1602,7 +1609,7 @@
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="14" t="s">
         <v>13</v>
@@ -1645,34 +1652,34 @@
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="14">
-        <v>7.636</v>
+        <v>7.6360000000000001</v>
       </c>
       <c r="D31" s="20">
-        <v>7.65808069402</v>
+        <v>7.6580806940199997</v>
       </c>
       <c r="E31" s="14">
-        <v>7.653</v>
+        <v>7.6529999999999996</v>
       </c>
       <c r="F31" s="14">
-        <v>7.65754729591</v>
+        <v>7.6575472959099997</v>
       </c>
       <c r="G31" s="14">
-        <v>7.413</v>
+        <v>7.4130000000000003</v>
       </c>
       <c r="H31" s="14">
-        <v>7.41812260513</v>
+        <v>7.4181226051299998</v>
       </c>
       <c r="I31" s="14">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="J31" s="14">
-        <v>7.66197642361</v>
+        <v>7.6619764236099996</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -1688,9 +1695,9 @@
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="7">
-        <v>44393.0</v>
+        <v>44393</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>10</v>
@@ -1699,57 +1706,57 @@
         <v>7.343</v>
       </c>
       <c r="D32" s="22">
-        <v>7.625156</v>
+        <v>7.6251559999999996</v>
       </c>
       <c r="E32" s="8">
-        <v>7.6492</v>
+        <v>7.6492000000000004</v>
       </c>
       <c r="G32" s="8">
         <v>7.43</v>
       </c>
       <c r="H32" s="8">
-        <v>7.399524062</v>
+        <v>7.3995240620000002</v>
       </c>
       <c r="I32" s="8">
-        <v>7.638</v>
+        <v>7.6379999999999999</v>
       </c>
       <c r="R32" s="8">
         <v>7.5824504659</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="23">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D33" s="24">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E33" s="8">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F33" s="14">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G33" s="12">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H33" s="25">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I33" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J33" s="14">
-        <v>0.00205612858</v>
+        <v>2.0561285799999998E-3</v>
       </c>
       <c r="R33" s="8">
-        <v>0.00204469138</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2.0446913800000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1760,22 +1767,22 @@
         <v>1049.636</v>
       </c>
       <c r="E34" s="8">
-        <v>1018.0</v>
+        <v>1018</v>
       </c>
       <c r="G34" s="8">
         <v>1725.1</v>
       </c>
       <c r="H34" s="8">
-        <v>1810.765</v>
+        <v>1810.7650000000001</v>
       </c>
       <c r="I34" s="8">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="R34" s="8">
         <v>1146.56994821687</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
@@ -1801,44 +1808,44 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="21">
-        <v>7.637</v>
+        <v>7.6369999999999996</v>
       </c>
       <c r="D36" s="26">
-        <v>7.645033</v>
+        <v>7.6450329999999997</v>
       </c>
       <c r="E36" s="8">
-        <v>7.656</v>
+        <v>7.6559999999999997</v>
       </c>
       <c r="G36" s="8">
-        <v>7.412</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="H36" s="8">
-        <v>7.402027</v>
+        <v>7.4020270000000004</v>
       </c>
       <c r="I36" s="8">
-        <v>7.409</v>
+        <v>7.4089999999999998</v>
       </c>
       <c r="R36" s="8">
-        <v>7.63844300761</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>7.6384430076100003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" s="13">
-        <v>44395.0</v>
+        <v>44395</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="14">
-        <v>7.708</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="D37" s="27">
-        <v>7.50086894</v>
+        <v>7.5008689400000002</v>
       </c>
       <c r="E37" s="14">
         <v>7.63</v>
@@ -1847,16 +1854,16 @@
         <v>7.5824504659</v>
       </c>
       <c r="G37" s="14">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="14">
-        <v>7.422</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="J37" s="14">
-        <v>7.37184758668</v>
+        <v>7.3718475866800004</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
@@ -1872,34 +1879,34 @@
       <c r="V37" s="17"/>
       <c r="W37" s="17"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="16">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D38" s="27">
-        <v>0.00203843692</v>
+        <v>2.03843692E-3</v>
       </c>
       <c r="E38" s="14">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F38" s="17">
-        <v>0.00204469138</v>
+        <v>2.0446913800000002E-3</v>
       </c>
       <c r="G38" s="16">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H38" s="25">
-        <v>0.00206009765</v>
+        <v>2.0600976499999999E-3</v>
       </c>
       <c r="I38" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J38" s="14">
-        <v>0.00205612858</v>
+        <v>2.0561285799999998E-3</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -1915,7 +1922,7 @@
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="14" t="s">
         <v>12</v>
@@ -1924,10 +1931,10 @@
         <v>843.55</v>
       </c>
       <c r="D39" s="14">
-        <v>1431.11712</v>
+        <v>1431.1171200000001</v>
       </c>
       <c r="E39" s="14">
-        <v>1059.0</v>
+        <v>1059</v>
       </c>
       <c r="F39" s="17">
         <v>1146.56994821687</v>
@@ -1936,10 +1943,10 @@
         <v>1783.5</v>
       </c>
       <c r="H39" s="14">
-        <v>6147.59464</v>
+        <v>6147.5946400000003</v>
       </c>
       <c r="I39" s="14">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="J39" s="14">
         <v>1920.85900265906</v>
@@ -1958,7 +1965,7 @@
       <c r="V39" s="17"/>
       <c r="W39" s="17"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="14" t="s">
         <v>13</v>
@@ -1985,7 +1992,7 @@
         <v>29.5</v>
       </c>
       <c r="J40" s="14">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -2001,34 +2008,34 @@
       <c r="V40" s="17"/>
       <c r="W40" s="17"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="14">
-        <v>7.639</v>
+        <v>7.6390000000000002</v>
       </c>
       <c r="D41" s="14">
-        <v>7.649226</v>
+        <v>7.6492259999999996</v>
       </c>
       <c r="E41" s="14">
-        <v>7.653</v>
+        <v>7.6529999999999996</v>
       </c>
       <c r="F41" s="17">
-        <v>7.63844300761</v>
+        <v>7.6384430076100003</v>
       </c>
       <c r="G41" s="14">
         <v>7.41</v>
       </c>
       <c r="H41" s="14">
-        <v>7.408</v>
+        <v>7.4080000000000004</v>
       </c>
       <c r="I41" s="14">
         <v>7.407</v>
       </c>
       <c r="J41" s="14">
-        <v>7.64231148202</v>
+        <v>7.6423114820200002</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -2044,68 +2051,68 @@
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" s="7">
-        <v>44396.0</v>
+        <v>44396</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="8">
-        <v>7.623</v>
+        <v>7.6230000000000002</v>
       </c>
       <c r="D42" s="28">
-        <v>7.38820379</v>
+        <v>7.3882037900000004</v>
       </c>
       <c r="E42" s="8">
-        <v>7.678</v>
+        <v>7.6779999999999999</v>
       </c>
       <c r="F42" s="8">
-        <v>7.65792951457</v>
+        <v>7.6579295145700002</v>
       </c>
       <c r="G42" s="8">
         <v>7.41</v>
       </c>
       <c r="H42" s="28">
-        <v>7.42240179</v>
+        <v>7.4224017900000003</v>
       </c>
       <c r="I42" s="8">
-        <v>7.434</v>
+        <v>7.4340000000000002</v>
       </c>
       <c r="J42" s="8">
-        <v>7.2952714251</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>7.2952714251000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="B43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="12">
-        <v>0.00198224831</v>
+        <v>1.9822483099999999E-3</v>
       </c>
       <c r="D43" s="28">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E43" s="12">
-        <v>0.00206613</v>
+        <v>2.0661299999999998E-3</v>
       </c>
       <c r="F43" s="8">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G43" s="12">
-        <v>0.00207881481</v>
+        <v>2.0788148099999998E-3</v>
       </c>
       <c r="H43" s="28">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I43" s="14">
-        <v>0.0020456</v>
+        <v>2.0455999999999998E-3</v>
       </c>
       <c r="J43" s="8">
-        <v>0.00205695096</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2.0569509600000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="B44" s="8" t="s">
         <v>12</v>
       </c>
@@ -2116,25 +2123,25 @@
         <v>1895.71281</v>
       </c>
       <c r="E44" s="8">
-        <v>942.0</v>
+        <v>942</v>
       </c>
       <c r="F44" s="8">
-        <v>981.28525935439</v>
+        <v>981.28525935438995</v>
       </c>
       <c r="G44" s="8">
         <v>1818.15</v>
       </c>
       <c r="H44" s="8">
-        <v>1766.54535</v>
+        <v>1766.5453500000001</v>
       </c>
       <c r="I44" s="8">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="J44" s="8">
-        <v>2328.87538333492</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2328.8753833349201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>13</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>29.6</v>
       </c>
       <c r="F45" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="G45" s="8">
         <v>28.6</v>
@@ -2163,65 +2170,65 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="8">
-        <v>7.635</v>
+        <v>7.6349999999999998</v>
       </c>
       <c r="D46" s="28">
-        <v>7.65422994</v>
+        <v>7.6542299399999996</v>
       </c>
       <c r="E46" s="8">
-        <v>7.654</v>
+        <v>7.6539999999999999</v>
       </c>
       <c r="F46" s="8">
-        <v>7.65017558363</v>
+        <v>7.6501755836300003</v>
       </c>
       <c r="G46" s="8">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="H46" s="8">
         <v>7.415</v>
       </c>
       <c r="I46" s="8">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="J46" s="8">
-        <v>7.64749505832</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>7.6474950583199997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="A47" s="13">
-        <v>44397.0</v>
+        <v>44397</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="14">
-        <v>7.607</v>
+        <v>7.6070000000000002</v>
       </c>
       <c r="D47" s="15">
         <v>7.54188779388</v>
       </c>
       <c r="E47" s="14">
-        <v>7.615</v>
+        <v>7.6150000000000002</v>
       </c>
       <c r="F47" s="14">
-        <v>7.64073917079</v>
+        <v>7.6407391707899999</v>
       </c>
       <c r="G47" s="14">
         <v>7.415</v>
       </c>
       <c r="H47" s="15">
-        <v>7.4311081085</v>
+        <v>7.4311081085000001</v>
       </c>
       <c r="I47" s="14">
-        <v>7.401</v>
+        <v>7.4009999999999998</v>
       </c>
       <c r="J47" s="14">
-        <v>7.40255381511</v>
+        <v>7.4025538151100001</v>
       </c>
       <c r="K47" s="17"/>
       <c r="L47" s="17"/>
@@ -2237,34 +2244,34 @@
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="D48" s="15">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E48" s="14">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F48" s="14">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G48" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="H48" s="15">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I48" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J48" s="14">
-        <v>0.00205695096</v>
+        <v>2.0569509600000002E-3</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
@@ -2280,7 +2287,7 @@
       <c r="V48" s="17"/>
       <c r="W48" s="17"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="14" t="s">
         <v>12</v>
@@ -2292,7 +2299,7 @@
         <v>1311.7447648032</v>
       </c>
       <c r="E49" s="14">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="F49" s="14">
         <v>1039.20591699124</v>
@@ -2301,10 +2308,10 @@
         <v>1726.87</v>
       </c>
       <c r="H49" s="15">
-        <v>1730.25565217105</v>
+        <v>1730.2556521710501</v>
       </c>
       <c r="I49" s="14">
-        <v>1813.0</v>
+        <v>1813</v>
       </c>
       <c r="J49" s="14">
         <v>1850.88023123176</v>
@@ -2323,7 +2330,7 @@
       <c r="V49" s="17"/>
       <c r="W49" s="17"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="14" t="s">
         <v>13</v>
@@ -2338,7 +2345,7 @@
         <v>29.9</v>
       </c>
       <c r="F50" s="14">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="G50" s="14">
         <v>28.8</v>
@@ -2366,34 +2373,34 @@
       <c r="V50" s="17"/>
       <c r="W50" s="17"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="14">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="D51" s="15">
-        <v>7.65393463096</v>
+        <v>7.6539346309600003</v>
       </c>
       <c r="E51" s="14">
-        <v>7.658</v>
+        <v>7.6580000000000004</v>
       </c>
       <c r="F51" s="14">
-        <v>7.65658271558</v>
+        <v>7.6565827155799999</v>
       </c>
       <c r="G51" s="14">
-        <v>7.398</v>
+        <v>7.3979999999999997</v>
       </c>
       <c r="H51" s="15">
-        <v>7.41452775324</v>
+        <v>7.4145277532399998</v>
       </c>
       <c r="I51" s="14">
         <v>7.415</v>
       </c>
       <c r="J51" s="14">
-        <v>7.65900908707</v>
+        <v>7.6590090870700003</v>
       </c>
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
@@ -2409,9 +2416,9 @@
       <c r="V51" s="17"/>
       <c r="W51" s="17"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
       <c r="A52" s="7">
-        <v>44398.0</v>
+        <v>44398</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>10</v>
@@ -2420,57 +2427,57 @@
         <v>16</v>
       </c>
       <c r="D52" s="8">
-        <v>7.54183767</v>
+        <v>7.5418376699999996</v>
       </c>
       <c r="E52" s="8">
-        <v>7.594</v>
+        <v>7.5940000000000003</v>
       </c>
       <c r="F52" s="12">
-        <v>7.67874897695</v>
+        <v>7.6787489769499997</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="28">
-        <v>7.41565885</v>
+        <v>7.4156588499999998</v>
       </c>
       <c r="I52" s="8">
-        <v>7.381</v>
+        <v>7.3810000000000002</v>
       </c>
       <c r="J52" s="8">
-        <v>7.40255381511</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>7.4025538151100001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
       <c r="B53" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="8">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="D53" s="8">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E53" s="12">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F53" s="12">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G53" s="8">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="H53" s="30">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I53" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J53" s="8">
-        <v>0.00205695096</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2.0569509600000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
       <c r="B54" s="18" t="s">
         <v>12</v>
       </c>
@@ -2478,22 +2485,22 @@
         <v>1278.07879</v>
       </c>
       <c r="E54" s="8">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="F54" s="12">
         <v>928.63571282158</v>
       </c>
       <c r="H54" s="8">
-        <v>1731.02606</v>
+        <v>1731.0260599999999</v>
       </c>
       <c r="I54" s="8">
-        <v>1889.0</v>
+        <v>1889</v>
       </c>
       <c r="J54" s="8">
         <v>1850.88023123176</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
       <c r="B55" s="18" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>29.6</v>
       </c>
       <c r="H55" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="I55" s="8">
         <v>31.3</v>
@@ -2516,59 +2523,59 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
       <c r="B56" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="8">
-        <v>7.64764253727</v>
+        <v>7.6476425372700003</v>
       </c>
       <c r="E56" s="8">
-        <v>7.654</v>
+        <v>7.6539999999999999</v>
       </c>
       <c r="F56" s="12">
         <v>7.64842553109</v>
       </c>
       <c r="H56" s="8">
-        <v>7.39932481</v>
+        <v>7.3993248100000004</v>
       </c>
       <c r="I56" s="8">
-        <v>7.401</v>
+        <v>7.4009999999999998</v>
       </c>
       <c r="J56" s="8">
-        <v>7.65900908707</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>7.6590090870700003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1">
       <c r="A57" s="13">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="14">
-        <v>7.563</v>
+        <v>7.5629999999999997</v>
       </c>
       <c r="D57" s="14">
-        <v>7.654</v>
+        <v>7.6539999999999999</v>
       </c>
       <c r="E57" s="14">
-        <v>7.594</v>
+        <v>7.5940000000000003</v>
       </c>
       <c r="F57" s="16">
-        <v>7.63974551062</v>
+        <v>7.6397455106200001</v>
       </c>
       <c r="G57" s="14">
-        <v>7.371</v>
+        <v>7.3710000000000004</v>
       </c>
       <c r="H57" s="31">
         <v>7.266</v>
       </c>
       <c r="I57" s="14">
-        <v>7.454</v>
+        <v>7.4539999999999997</v>
       </c>
       <c r="J57" s="14">
-        <v>7.36044853022</v>
+        <v>7.3604485302200002</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="17"/>
@@ -2584,34 +2591,34 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
       <c r="A58" s="17"/>
       <c r="B58" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="D58" s="14">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E58" s="14">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F58" s="16">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G58" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="H58" s="15">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I58" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J58" s="14">
-        <v>0.00205695096</v>
+        <v>2.0569509600000002E-3</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="17"/>
@@ -2627,7 +2634,7 @@
       <c r="V58" s="17"/>
       <c r="W58" s="17"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
       <c r="A59" s="17"/>
       <c r="B59" s="14" t="s">
         <v>12</v>
@@ -2639,7 +2646,7 @@
         <v>1038.02367</v>
       </c>
       <c r="E59" s="14">
-        <v>1161.0</v>
+        <v>1161</v>
       </c>
       <c r="F59" s="16">
         <v>1019.96769543555</v>
@@ -2648,13 +2655,13 @@
         <v>1949.77</v>
       </c>
       <c r="H59" s="31">
-        <v>2595.02336</v>
+        <v>2595.0233600000001</v>
       </c>
       <c r="I59" s="14">
-        <v>1605.0</v>
+        <v>1605</v>
       </c>
       <c r="J59" s="14">
-        <v>2008.84008507788</v>
+        <v>2008.8400850778801</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="17"/>
@@ -2670,7 +2677,7 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
       <c r="A60" s="17"/>
       <c r="B60" s="14" t="s">
         <v>13</v>
@@ -2713,34 +2720,34 @@
       <c r="V60" s="17"/>
       <c r="W60" s="17"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
       <c r="A61" s="17"/>
       <c r="B61" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C61" s="14">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="D61" s="14">
-        <v>7.669</v>
+        <v>7.6689999999999996</v>
       </c>
       <c r="E61" s="14">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="F61" s="16">
-        <v>7.64785981299</v>
+        <v>7.6478598129900002</v>
       </c>
       <c r="G61" s="14">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="H61" s="14">
-        <v>7.42123278</v>
+        <v>7.4212327800000004</v>
       </c>
       <c r="I61" s="14">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="J61" s="14">
-        <v>7.65068080378</v>
+        <v>7.6506808037800003</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="17"/>
@@ -2756,68 +2763,68 @@
       <c r="V61" s="17"/>
       <c r="W61" s="17"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1">
       <c r="A62" s="7">
-        <v>44400.0</v>
+        <v>44400</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="8">
-        <v>7.627</v>
+        <v>7.6269999999999998</v>
       </c>
       <c r="D62" s="8">
-        <v>7.716</v>
+        <v>7.7160000000000002</v>
       </c>
       <c r="E62" s="8">
         <v>7.65</v>
       </c>
       <c r="F62" s="8">
-        <v>7.60820236471</v>
+        <v>7.6082023647100003</v>
       </c>
       <c r="G62" s="8">
         <v>7.39</v>
       </c>
       <c r="H62" s="29">
-        <v>7.395</v>
+        <v>7.3949999999999996</v>
       </c>
       <c r="I62" s="8">
-        <v>7.369</v>
+        <v>7.3689999999999998</v>
       </c>
       <c r="J62" s="8">
-        <v>7.40192292719</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>7.4019229271900002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
       <c r="B63" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="11">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="D63" s="8">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E63" s="14">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F63" s="8">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G63" s="11">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="H63" s="15">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I63" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J63" s="8">
-        <v>0.00205695096</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2.0569509600000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="13">
       <c r="B64" s="18" t="s">
         <v>12</v>
       </c>
@@ -2825,13 +2832,13 @@
         <v>1060.95</v>
       </c>
       <c r="D64" s="8">
-        <v>856.620128</v>
+        <v>856.62012800000002</v>
       </c>
       <c r="E64" s="8">
-        <v>1016.0</v>
+        <v>1016</v>
       </c>
       <c r="F64" s="8">
-        <v>1101.99579681594</v>
+        <v>1101.9957968159399</v>
       </c>
       <c r="G64" s="8">
         <v>1874.05</v>
@@ -2846,7 +2853,7 @@
         <v>1820.17117891715</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:23" ht="13">
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
@@ -2875,38 +2882,38 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:23" ht="13">
       <c r="B66" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="8">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="D66" s="8">
-        <v>7.652</v>
+        <v>7.6520000000000001</v>
       </c>
       <c r="E66" s="8">
-        <v>7.656</v>
+        <v>7.6559999999999997</v>
       </c>
       <c r="F66" s="8">
         <v>7.64814157027</v>
       </c>
       <c r="G66" s="8">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="H66" s="8">
         <v>7.407</v>
       </c>
       <c r="I66" s="8">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="J66" s="8">
-        <v>7.65068080378</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>7.6506808037800003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="13">
       <c r="A67" s="13">
-        <v>44402.0</v>
+        <v>44402</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>10</v>
@@ -2918,22 +2925,22 @@
         <v>7.60595</v>
       </c>
       <c r="E67" s="14">
-        <v>7.669</v>
+        <v>7.6689999999999996</v>
       </c>
       <c r="F67" s="16">
-        <v>7.63535327128</v>
+        <v>7.6353532712799996</v>
       </c>
       <c r="G67" s="14">
-        <v>7.346</v>
+        <v>7.3460000000000001</v>
       </c>
       <c r="H67" s="32">
-        <v>7.383941</v>
+        <v>7.3839410000000001</v>
       </c>
       <c r="I67" s="14">
-        <v>7.437</v>
+        <v>7.4370000000000003</v>
       </c>
       <c r="J67" s="14">
-        <v>7.41418150188</v>
+        <v>7.4141815018799999</v>
       </c>
       <c r="K67" s="17"/>
       <c r="L67" s="14"/>
@@ -2949,34 +2956,34 @@
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:23" ht="13">
       <c r="A68" s="17"/>
       <c r="B68" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="D68" s="14">
-        <v>0.00206314871</v>
+        <v>2.0631487100000001E-3</v>
       </c>
       <c r="E68" s="14">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F68" s="16">
-        <v>0.00204164122</v>
+        <v>2.0416412199999998E-3</v>
       </c>
       <c r="G68" s="14">
-        <v>0.00206153834</v>
+        <v>2.0615383399999999E-3</v>
       </c>
       <c r="H68" s="15">
-        <v>0.00208680499</v>
+        <v>2.0868049900000002E-3</v>
       </c>
       <c r="I68" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J68" s="14">
-        <v>0.00205695096</v>
+        <v>2.0569509600000002E-3</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="14"/>
@@ -2992,7 +2999,7 @@
       <c r="V68" s="17"/>
       <c r="W68" s="17"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:23" ht="13">
       <c r="A69" s="17"/>
       <c r="B69" s="15" t="s">
         <v>12</v>
@@ -3004,22 +3011,22 @@
         <v>1112.606</v>
       </c>
       <c r="E69" s="14">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="F69" s="16">
-        <v>1026.83557155079</v>
+        <v>1026.8355715507901</v>
       </c>
       <c r="G69" s="14">
         <v>2013.41</v>
       </c>
       <c r="H69" s="14">
-        <v>1915.43757</v>
+        <v>1915.4375700000001</v>
       </c>
       <c r="I69" s="14">
-        <v>1719.0</v>
+        <v>1719</v>
       </c>
       <c r="J69" s="14">
-        <v>1756.55845910696</v>
+        <v>1756.5584591069601</v>
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="14"/>
@@ -3035,7 +3042,7 @@
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:23" ht="13">
       <c r="A70" s="17"/>
       <c r="B70" s="15" t="s">
         <v>13</v>
@@ -3056,13 +3063,13 @@
         <v>30.6</v>
       </c>
       <c r="H70" s="14">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="I70" s="14">
         <v>28.7</v>
       </c>
       <c r="J70" s="14">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="K70" s="17"/>
       <c r="L70" s="14"/>
@@ -3078,7 +3085,7 @@
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:23" ht="13">
       <c r="A71" s="17"/>
       <c r="B71" s="15" t="s">
         <v>14</v>
@@ -3090,22 +3097,22 @@
         <v>7.649769</v>
       </c>
       <c r="E71" s="14">
-        <v>7.661</v>
+        <v>7.6609999999999996</v>
       </c>
       <c r="F71" s="16">
-        <v>7.64621553064</v>
+        <v>7.6462155306400001</v>
       </c>
       <c r="G71" s="14">
-        <v>7.393</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="H71" s="14">
-        <v>7.41002594</v>
+        <v>7.4100259399999997</v>
       </c>
       <c r="I71" s="14">
-        <v>7.418</v>
+        <v>7.4180000000000001</v>
       </c>
       <c r="J71" s="14">
-        <v>7.64774843201</v>
+        <v>7.6477484320100002</v>
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="14"/>
@@ -3121,68 +3128,68 @@
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:23" ht="13">
       <c r="A72" s="7">
-        <v>44403.0</v>
+        <v>44403</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="8">
-        <v>7.656</v>
+        <v>7.6559999999999997</v>
       </c>
       <c r="D72" s="8">
-        <v>7.647</v>
+        <v>7.6470000000000002</v>
       </c>
       <c r="E72" s="8">
-        <v>7.637</v>
+        <v>7.6369999999999996</v>
       </c>
       <c r="F72" s="8">
-        <v>7.62758896994</v>
+        <v>7.6275889699399997</v>
       </c>
       <c r="G72" s="8">
-        <v>7.463</v>
+        <v>7.4630000000000001</v>
       </c>
       <c r="H72" s="8">
         <v>7.36</v>
       </c>
       <c r="I72" s="8">
-        <v>7.441</v>
+        <v>7.4409999999999998</v>
       </c>
       <c r="J72" s="8">
-        <v>7.41590456969</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>7.4159045696900003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="13">
       <c r="B73" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="8">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D73" s="8">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E73" s="14">
-        <v>0.0020919</v>
+        <v>2.0918999999999998E-3</v>
       </c>
       <c r="F73" s="8">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G73" s="8">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H73" s="8">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I73" s="14">
-        <v>0.0020491</v>
+        <v>2.0490999999999999E-3</v>
       </c>
       <c r="J73" s="8">
-        <v>0.00205695096</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2.0569509600000002E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="13">
       <c r="B74" s="8" t="s">
         <v>12</v>
       </c>
@@ -3193,30 +3200,30 @@
         <v>1102.31495</v>
       </c>
       <c r="E74" s="8">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="F74" s="8">
-        <v>977.2664050753</v>
+        <v>977.26640507529999</v>
       </c>
       <c r="G74" s="8">
         <v>1522.69</v>
       </c>
       <c r="H74" s="28">
-        <v>2044.44603</v>
+        <v>2044.4460300000001</v>
       </c>
       <c r="I74" s="8">
-        <v>1687.0</v>
+        <v>1687</v>
       </c>
       <c r="J74" s="8">
         <v>1753.27928883082</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:23" ht="13">
       <c r="B75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="8">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D75" s="8">
         <v>29.6</v>
@@ -3240,7 +3247,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:23" ht="13">
       <c r="B76" s="8" t="s">
         <v>14</v>
       </c>
@@ -3248,57 +3255,57 @@
         <v>7.649</v>
       </c>
       <c r="D76" s="8">
-        <v>7.652</v>
+        <v>7.6520000000000001</v>
       </c>
       <c r="E76" s="8">
         <v>7.657</v>
       </c>
       <c r="F76" s="8">
-        <v>7.61814765061</v>
+        <v>7.6181476506100001</v>
       </c>
       <c r="G76" s="8">
-        <v>7.393</v>
+        <v>7.3929999999999998</v>
       </c>
       <c r="H76" s="8">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="I76" s="8">
-        <v>7.414</v>
+        <v>7.4139999999999997</v>
       </c>
       <c r="J76" s="8">
-        <v>7.64878393047</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>7.6487839304699996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="13">
       <c r="A77" s="13">
-        <v>44404.0</v>
+        <v>44404</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="14">
-        <v>7.624</v>
+        <v>7.6239999999999997</v>
       </c>
       <c r="D77" s="14">
-        <v>7.63062856884</v>
+        <v>7.6306285688399997</v>
       </c>
       <c r="E77" s="14">
         <v>7.73</v>
       </c>
       <c r="F77" s="14">
-        <v>7.48392457856</v>
+        <v>7.4839245785599999</v>
       </c>
       <c r="G77" s="14">
-        <v>7.461</v>
+        <v>7.4610000000000003</v>
       </c>
       <c r="H77" s="14">
-        <v>7.38650960327</v>
+        <v>7.3865096032700004</v>
       </c>
       <c r="I77" s="14">
-        <v>7.267</v>
+        <v>7.2670000000000003</v>
       </c>
       <c r="J77" s="14">
-        <v>7.39650267377</v>
+        <v>7.3965026737699997</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="17"/>
@@ -3314,34 +3321,34 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:23" ht="13">
       <c r="A78" s="17"/>
       <c r="B78" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="14">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D78" s="14">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E78" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F78" s="14">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G78" s="33">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H78" s="14">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I78" s="14">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J78" s="14">
-        <v>0.00209245941</v>
+        <v>2.0924594100000002E-3</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="17"/>
@@ -3357,7 +3364,7 @@
       <c r="V78" s="17"/>
       <c r="W78" s="17"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:23" ht="13">
       <c r="A79" s="17"/>
       <c r="B79" s="14" t="s">
         <v>12</v>
@@ -3369,7 +3376,7 @@
         <v>1044.4561007467</v>
       </c>
       <c r="E79" s="14">
-        <v>797.0</v>
+        <v>797</v>
       </c>
       <c r="F79" s="14">
         <v>1382.38299308869</v>
@@ -3378,13 +3385,13 @@
         <v>1565.18</v>
       </c>
       <c r="H79" s="14">
-        <v>1909.36490107102</v>
+        <v>1909.3649010710201</v>
       </c>
       <c r="I79" s="14">
-        <v>2519.0</v>
+        <v>2519</v>
       </c>
       <c r="J79" s="14">
-        <v>1863.03997934045</v>
+        <v>1863.0399793404499</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="17"/>
@@ -3400,7 +3407,7 @@
       <c r="V79" s="17"/>
       <c r="W79" s="17"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:23" ht="13">
       <c r="A80" s="17"/>
       <c r="B80" s="14" t="s">
         <v>13</v>
@@ -3443,34 +3450,34 @@
       <c r="V80" s="17"/>
       <c r="W80" s="17"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:23" ht="13">
       <c r="A81" s="17"/>
       <c r="B81" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="14">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="D81" s="14">
         <v>7.64846283341</v>
       </c>
       <c r="E81" s="14">
-        <v>7.639</v>
+        <v>7.6390000000000002</v>
       </c>
       <c r="F81" s="14">
-        <v>7.61788996824</v>
+        <v>7.6178899682400001</v>
       </c>
       <c r="G81" s="14">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="H81" s="14">
-        <v>7.41125442005</v>
+        <v>7.4112544200499997</v>
       </c>
       <c r="I81" s="14">
         <v>7.41</v>
       </c>
       <c r="J81" s="14">
-        <v>7.65458814464</v>
+        <v>7.6545881446399999</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="17"/>
@@ -3486,82 +3493,82 @@
       <c r="V81" s="17"/>
       <c r="W81" s="17"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:23" ht="13">
       <c r="A82" s="7">
-        <v>44405.0</v>
+        <v>44405</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="8">
-        <v>7.578</v>
+        <v>7.5780000000000003</v>
       </c>
       <c r="D82" s="18">
-        <v>7.60235068566</v>
+        <v>7.6023506856600003</v>
       </c>
       <c r="E82" s="8">
-        <v>7.596</v>
+        <v>7.5960000000000001</v>
       </c>
       <c r="F82" s="8">
-        <v>7.71771177765</v>
+        <v>7.7177117776499999</v>
       </c>
       <c r="G82" s="8">
         <v>7.492</v>
       </c>
       <c r="H82" s="18">
-        <v>7.48399626085</v>
+        <v>7.4839962608499997</v>
       </c>
       <c r="I82" s="8">
-        <v>7.312</v>
+        <v>7.3120000000000003</v>
       </c>
       <c r="J82" s="8">
         <v>7.41761492896</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:23" ht="13">
       <c r="B83" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="8">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D83" s="18">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E83" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F83" s="8">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G83" s="34">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H83" s="18">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I83" s="14">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J83" s="8">
-        <v>0.00209245941</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2.0924594100000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="13">
       <c r="B84" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="8">
-        <v>1196.0</v>
+        <v>1196</v>
       </c>
       <c r="D84" s="18">
         <v>1124.52814782366</v>
       </c>
       <c r="E84" s="8">
-        <v>1114.0</v>
+        <v>1114</v>
       </c>
       <c r="F84" s="8">
-        <v>785.17542343402</v>
+        <v>785.17542343401999</v>
       </c>
       <c r="G84" s="8">
         <v>1456.54</v>
@@ -3570,13 +3577,13 @@
         <v>1521.26610077604</v>
       </c>
       <c r="I84" s="8">
-        <v>2274.0</v>
+        <v>2274</v>
       </c>
       <c r="J84" s="8">
-        <v>1778.55437258161</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1778.5543725816101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="13">
       <c r="B85" s="8" t="s">
         <v>13</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>30.5</v>
       </c>
       <c r="D85" s="18">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E85" s="8">
         <v>29.8</v>
@@ -3605,38 +3612,38 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:23" ht="13">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="8">
-        <v>7.652</v>
+        <v>7.6520000000000001</v>
       </c>
       <c r="D86" s="18">
-        <v>7.6506043933</v>
+        <v>7.6506043933000001</v>
       </c>
       <c r="E86" s="8">
         <v>7.64</v>
       </c>
       <c r="F86" s="8">
-        <v>7.61893392282</v>
+        <v>7.6189339228200001</v>
       </c>
       <c r="G86" s="8">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="H86" s="18">
-        <v>7.41362203612</v>
+        <v>7.4136220361199996</v>
       </c>
       <c r="I86" s="8">
         <v>7.41</v>
       </c>
       <c r="J86" s="8">
-        <v>7.65641185595</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>7.6564118559500001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="13">
       <c r="A87" s="13">
-        <v>44406.0</v>
+        <v>44406</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>10</v>
@@ -3645,25 +3652,25 @@
         <v>7.64</v>
       </c>
       <c r="D87" s="14">
-        <v>7.6095396</v>
+        <v>7.6095395999999997</v>
       </c>
       <c r="E87" s="35">
-        <v>7.713</v>
+        <v>7.7130000000000001</v>
       </c>
       <c r="F87" s="16">
-        <v>7.63629831002</v>
+        <v>7.6362983100199999</v>
       </c>
       <c r="G87" s="14">
         <v>7.375</v>
       </c>
       <c r="H87" s="14">
-        <v>7.35646226</v>
+        <v>7.3564622599999998</v>
       </c>
       <c r="I87" s="14">
-        <v>7.416</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="J87" s="14">
-        <v>7.38424228169</v>
+        <v>7.3842422816899997</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="17"/>
@@ -3679,34 +3686,34 @@
       <c r="V87" s="17"/>
       <c r="W87" s="17"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:23" ht="13">
       <c r="A88" s="17"/>
       <c r="B88" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="14">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D88" s="14">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E88" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F88" s="16">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G88" s="33">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H88" s="14">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I88" s="14">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J88" s="14">
-        <v>0.00209245941</v>
+        <v>2.0924594100000002E-3</v>
       </c>
       <c r="K88" s="14"/>
       <c r="L88" s="17"/>
@@ -3722,7 +3729,7 @@
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:23" ht="13">
       <c r="A89" s="17"/>
       <c r="B89" s="14" t="s">
         <v>12</v>
@@ -3734,10 +3741,10 @@
         <v>1098.7762</v>
       </c>
       <c r="E89" s="14">
-        <v>834.0</v>
+        <v>834</v>
       </c>
       <c r="F89" s="16">
-        <v>954.33750552496</v>
+        <v>954.33750552495997</v>
       </c>
       <c r="G89" s="14">
         <v>1925.06</v>
@@ -3746,7 +3753,7 @@
         <v>2056.3797</v>
       </c>
       <c r="I89" s="14">
-        <v>1774.0</v>
+        <v>1774</v>
       </c>
       <c r="J89" s="14">
         <v>1918.25017473396</v>
@@ -3765,7 +3772,7 @@
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:23" ht="13">
       <c r="A90" s="17"/>
       <c r="B90" s="14" t="s">
         <v>13</v>
@@ -3808,34 +3815,34 @@
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:23" ht="13">
       <c r="A91" s="17"/>
       <c r="B91" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="14">
-        <v>7.652</v>
+        <v>7.6520000000000001</v>
       </c>
       <c r="D91" s="14">
-        <v>7.648</v>
+        <v>7.6479999999999997</v>
       </c>
       <c r="E91" s="14">
-        <v>7.639</v>
+        <v>7.6390000000000002</v>
       </c>
       <c r="F91" s="16">
-        <v>7.61713014284</v>
+        <v>7.6171301428399998</v>
       </c>
       <c r="G91" s="14">
-        <v>7.403</v>
+        <v>7.4029999999999996</v>
       </c>
       <c r="H91" s="14">
-        <v>7.412</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="I91" s="14">
         <v>7.41</v>
       </c>
       <c r="J91" s="14">
-        <v>7.65458814464</v>
+        <v>7.6545881446399999</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="17"/>
@@ -3851,97 +3858,97 @@
       <c r="V91" s="17"/>
       <c r="W91" s="17"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:23" ht="13">
       <c r="A92" s="7">
-        <v>44407.0</v>
+        <v>44407</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="8">
-        <v>7.614</v>
+        <v>7.6139999999999999</v>
       </c>
       <c r="D92" s="8">
-        <v>7.62423381748</v>
+        <v>7.6242338174800004</v>
       </c>
       <c r="E92" s="8">
-        <v>7.598</v>
+        <v>7.5979999999999999</v>
       </c>
       <c r="F92" s="8">
-        <v>7.62027218633</v>
+        <v>7.6202721863300003</v>
       </c>
       <c r="G92" s="8">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="H92" s="8">
-        <v>7.39487590739</v>
+        <v>7.3948759073900003</v>
       </c>
       <c r="I92" s="8">
         <v>7.44</v>
       </c>
       <c r="J92" s="8">
-        <v>7.39694030603</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>7.3969403060300003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="13">
       <c r="B93" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="8">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D93" s="8">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E93" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F93" s="8">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G93" s="34">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H93" s="8">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I93" s="8">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J93" s="8">
-        <v>0.00209245941</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2.0924594100000002E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="13">
       <c r="B94" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="8">
-        <v>1082.13</v>
+        <v>1082.1300000000001</v>
       </c>
       <c r="D94" s="8">
         <v>1059.53955131306</v>
       </c>
       <c r="E94" s="8">
-        <v>1106.0</v>
+        <v>1106</v>
       </c>
       <c r="F94" s="8">
-        <v>992.37528903768</v>
+        <v>992.37528903767998</v>
       </c>
       <c r="G94" s="8">
         <v>1799.41</v>
       </c>
       <c r="H94" s="8">
-        <v>1864.93743969217</v>
+        <v>1864.9374396921701</v>
       </c>
       <c r="I94" s="8">
-        <v>1669.0</v>
+        <v>1669</v>
       </c>
       <c r="J94" s="8">
         <v>1855.2505623017</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:23" ht="13">
       <c r="B95" s="8" t="s">
         <v>13</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>31.7</v>
       </c>
       <c r="D95" s="8">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E95" s="8">
         <v>30.1</v>
@@ -3970,62 +3977,62 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:23" ht="13">
       <c r="B96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="8">
-        <v>7.646</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="D96" s="8">
-        <v>7.64794945409</v>
+        <v>7.6479494540899999</v>
       </c>
       <c r="E96" s="8">
-        <v>7.639</v>
+        <v>7.6390000000000002</v>
       </c>
       <c r="F96" s="8">
-        <v>7.61713014284</v>
+        <v>7.6171301428399998</v>
       </c>
       <c r="G96" s="8">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="H96" s="8">
-        <v>7.40973012327</v>
+        <v>7.4097301232700001</v>
       </c>
       <c r="I96" s="8">
-        <v>7.408</v>
+        <v>7.4080000000000004</v>
       </c>
       <c r="J96" s="8">
-        <v>7.65311073259</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>7.6531107325900001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="13">
       <c r="A97" s="13">
-        <v>44409.0</v>
+        <v>44409</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="14">
-        <v>7.634</v>
+        <v>7.6340000000000003</v>
       </c>
       <c r="D97" s="14">
-        <v>7.6282448997</v>
+        <v>7.6282448997000003</v>
       </c>
       <c r="E97" s="14">
-        <v>7.553</v>
+        <v>7.5529999999999999</v>
       </c>
       <c r="F97" s="16">
-        <v>7.61447762845</v>
+        <v>7.6144776284500004</v>
       </c>
       <c r="G97" s="14">
         <v>7.4</v>
       </c>
       <c r="H97" s="14">
-        <v>7.4395485093</v>
+        <v>7.4395485092999998</v>
       </c>
       <c r="I97" s="14">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="J97" s="14">
         <v>7.42703293883</v>
@@ -4044,34 +4051,34 @@
       <c r="V97" s="17"/>
       <c r="W97" s="17"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" ht="13">
       <c r="A98" s="17"/>
       <c r="B98" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="14">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D98" s="14">
-        <v>0.00205794853</v>
+        <v>2.05794853E-3</v>
       </c>
       <c r="E98" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F98" s="16">
-        <v>0.00191188531</v>
+        <v>1.9118853099999999E-3</v>
       </c>
       <c r="G98" s="33">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H98" s="14">
-        <v>0.00209514426</v>
+        <v>2.09514426E-3</v>
       </c>
       <c r="I98" s="14">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J98" s="14">
-        <v>0.00209245941</v>
+        <v>2.0924594100000002E-3</v>
       </c>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
@@ -4087,7 +4094,7 @@
       <c r="V98" s="17"/>
       <c r="W98" s="17"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" ht="13">
       <c r="A99" s="17"/>
       <c r="B99" s="14" t="s">
         <v>12</v>
@@ -4096,25 +4103,25 @@
         <v>1038.28</v>
       </c>
       <c r="D99" s="14">
-        <v>1059.56580634658</v>
+        <v>1059.5658063465801</v>
       </c>
       <c r="E99" s="14">
-        <v>1238.0</v>
+        <v>1238</v>
       </c>
       <c r="F99" s="16">
-        <v>1014.90971614423</v>
+        <v>1014.9097161442299</v>
       </c>
       <c r="G99" s="14">
         <v>1820.84</v>
       </c>
       <c r="H99" s="14">
-        <v>1698.24196089029</v>
+        <v>1698.2419608902901</v>
       </c>
       <c r="I99" s="14">
-        <v>1825.0</v>
+        <v>1825</v>
       </c>
       <c r="J99" s="14">
-        <v>1742.12153070803</v>
+        <v>1742.1215307080299</v>
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -4130,7 +4137,7 @@
       <c r="V99" s="17"/>
       <c r="W99" s="17"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" ht="13">
       <c r="A100" s="17"/>
       <c r="B100" s="14" t="s">
         <v>13</v>
@@ -4173,7 +4180,7 @@
       <c r="V100" s="17"/>
       <c r="W100" s="17"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" ht="13">
       <c r="A101" s="17"/>
       <c r="B101" s="14" t="s">
         <v>14</v>
@@ -4182,25 +4189,25 @@
         <v>7.65</v>
       </c>
       <c r="D101" s="14">
-        <v>7.65201444146</v>
+        <v>7.6520144414600004</v>
       </c>
       <c r="E101" s="14">
         <v>7.641</v>
       </c>
       <c r="F101" s="16">
-        <v>7.62056600145</v>
+        <v>7.6205660014500003</v>
       </c>
       <c r="G101" s="14">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="H101" s="14">
-        <v>7.41514999017</v>
+        <v>7.4151499901699998</v>
       </c>
       <c r="I101" s="14">
         <v>7.41</v>
       </c>
       <c r="J101" s="14">
-        <v>7.65722645383</v>
+        <v>7.6572264538299999</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -4216,79 +4223,79 @@
       <c r="V101" s="17"/>
       <c r="W101" s="17"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" ht="13">
       <c r="A102" s="7">
-        <v>44410.0</v>
+        <v>44410</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="8">
-        <v>7.618</v>
+        <v>7.6180000000000003</v>
       </c>
       <c r="D102" s="8">
         <v>7.61696541404</v>
       </c>
       <c r="E102" s="8">
-        <v>7.613</v>
+        <v>7.6130000000000004</v>
       </c>
       <c r="F102" s="8">
-        <v>7.60305042658</v>
+        <v>7.6030504265800003</v>
       </c>
       <c r="G102" s="8">
         <v>7.415</v>
       </c>
       <c r="H102" s="8">
-        <v>7.522733341</v>
+        <v>7.5227333410000004</v>
       </c>
       <c r="I102" s="8">
-        <v>7.413</v>
+        <v>7.4130000000000003</v>
       </c>
       <c r="J102" s="8">
-        <v>7.40359667777</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>7.4035966777700004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="13">
       <c r="B103" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="8">
-        <v>0.00206969681</v>
+        <v>2.06969681E-3</v>
       </c>
       <c r="D103" s="8">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E103" s="14">
-        <v>0.0020046</v>
+        <v>2.0046E-3</v>
       </c>
       <c r="F103" s="8">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G103" s="36">
-        <v>0.00204948711</v>
+        <v>2.04948711E-3</v>
       </c>
       <c r="H103" s="8">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I103" s="14">
-        <v>0.0020737</v>
+        <v>2.0736999999999999E-3</v>
       </c>
       <c r="J103" s="8">
-        <v>0.00203959749</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>2.03959749E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="13">
       <c r="B104" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="8">
-        <v>1077.9</v>
+        <v>1077.9000000000001</v>
       </c>
       <c r="D104" s="8">
-        <v>1081.89244033687</v>
+        <v>1081.8924403368701</v>
       </c>
       <c r="E104" s="8">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="F104" s="8">
         <v>1117.20091923413</v>
@@ -4297,16 +4304,16 @@
         <v>1755.65</v>
       </c>
       <c r="H104" s="8">
-        <v>1379.69245423628</v>
+        <v>1379.6924542362799</v>
       </c>
       <c r="I104" s="8">
-        <v>1795.0</v>
+        <v>1795</v>
       </c>
       <c r="J104" s="8">
-        <v>1799.7252897381</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>1799.7252897380999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="13">
       <c r="B105" s="18" t="s">
         <v>13</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" ht="13">
       <c r="B106" s="18" t="s">
         <v>14</v>
       </c>
@@ -4343,57 +4350,57 @@
         <v>7.649</v>
       </c>
       <c r="D106" s="8">
-        <v>7.64931605928</v>
+        <v>7.6493160592800002</v>
       </c>
       <c r="E106" s="8">
-        <v>7.654</v>
+        <v>7.6539999999999999</v>
       </c>
       <c r="F106" s="8">
-        <v>7.64863735189</v>
+        <v>7.6486373518899997</v>
       </c>
       <c r="G106" s="8">
-        <v>7.404</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="H106" s="8">
-        <v>7.41164402804</v>
+        <v>7.4116440280400004</v>
       </c>
       <c r="I106" s="8">
-        <v>7.412</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="J106" s="8">
         <v>7.64772577953</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" ht="13">
       <c r="A107" s="13">
-        <v>44411.0</v>
+        <v>44411</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="14">
-        <v>7.584</v>
+        <v>7.5839999999999996</v>
       </c>
       <c r="D107" s="27">
-        <v>7.62995596</v>
+        <v>7.6299559600000002</v>
       </c>
       <c r="E107" s="14">
         <v>7.58</v>
       </c>
       <c r="F107" s="14">
-        <v>7.62409280786</v>
+        <v>7.6240928078600003</v>
       </c>
       <c r="G107" s="14">
-        <v>7.313</v>
+        <v>7.3129999999999997</v>
       </c>
       <c r="H107" s="27">
-        <v>7.4531217</v>
+        <v>7.4531216999999996</v>
       </c>
       <c r="I107" s="14">
-        <v>7.314</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="J107" s="14">
-        <v>7.37631796745</v>
+        <v>7.3763179674500003</v>
       </c>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
@@ -4409,34 +4416,34 @@
       <c r="V107" s="17"/>
       <c r="W107" s="17"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" ht="13">
       <c r="A108" s="17"/>
       <c r="B108" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="14">
-        <v>0.0020447551</v>
+        <v>2.0447551000000001E-3</v>
       </c>
       <c r="D108" s="16">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E108" s="14">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F108" s="14">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G108" s="14">
-        <v>0.00204313239</v>
+        <v>2.0431323900000002E-3</v>
       </c>
       <c r="H108" s="14">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I108" s="14">
-        <v>0.0020611</v>
+        <v>2.0611000000000002E-3</v>
       </c>
       <c r="J108" s="14">
-        <v>0.00203959749</v>
+        <v>2.03959749E-3</v>
       </c>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
@@ -4452,19 +4459,19 @@
       <c r="V108" s="17"/>
       <c r="W108" s="17"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" ht="13">
       <c r="A109" s="17"/>
       <c r="B109" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="14">
-        <v>1174.1</v>
+        <v>1174.0999999999999</v>
       </c>
       <c r="D109" s="14">
         <v>1054.1822</v>
       </c>
       <c r="E109" s="14">
-        <v>1184.0</v>
+        <v>1184</v>
       </c>
       <c r="F109" s="14">
         <v>1063.01919553636</v>
@@ -4473,10 +4480,10 @@
         <v>2258.39</v>
       </c>
       <c r="H109" s="27">
-        <v>1645.30937</v>
+        <v>1645.3093699999999</v>
       </c>
       <c r="I109" s="14">
-        <v>2260.0</v>
+        <v>2260</v>
       </c>
       <c r="J109" s="14">
         <v>1921.57855894984</v>
@@ -4495,7 +4502,7 @@
       <c r="V109" s="17"/>
       <c r="W109" s="17"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" ht="13">
       <c r="A110" s="17"/>
       <c r="B110" s="15" t="s">
         <v>13</v>
@@ -4538,25 +4545,25 @@
       <c r="V110" s="17"/>
       <c r="W110" s="17"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" ht="13">
       <c r="A111" s="17"/>
       <c r="B111" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="14">
-        <v>7.658</v>
+        <v>7.6580000000000004</v>
       </c>
       <c r="D111" s="27">
-        <v>7.65165018</v>
+        <v>7.6516501799999999</v>
       </c>
       <c r="E111" s="14">
         <v>7.65</v>
       </c>
       <c r="F111" s="14">
-        <v>7.64920755267</v>
+        <v>7.6492075526700001</v>
       </c>
       <c r="G111" s="14">
-        <v>7.409</v>
+        <v>7.4089999999999998</v>
       </c>
       <c r="H111" s="27">
         <v>7.41542674</v>
@@ -4565,7 +4572,7 @@
         <v>7.41</v>
       </c>
       <c r="J111" s="14">
-        <v>7.64800970877</v>
+        <v>7.6480097087700001</v>
       </c>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
@@ -4581,68 +4588,68 @@
       <c r="V111" s="17"/>
       <c r="W111" s="17"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" ht="13">
       <c r="A112" s="7">
-        <v>44412.0</v>
+        <v>44412</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="8">
-        <v>7.664</v>
+        <v>7.6639999999999997</v>
       </c>
       <c r="D112" s="8">
-        <v>7.68379987</v>
+        <v>7.6837998699999996</v>
       </c>
       <c r="E112" s="8">
-        <v>7.630210057</v>
+        <v>7.6302100570000002</v>
       </c>
       <c r="F112" s="8">
-        <v>7.66723035144</v>
+        <v>7.6672303514399998</v>
       </c>
       <c r="G112" s="8">
-        <v>7.498</v>
+        <v>7.4980000000000002</v>
       </c>
       <c r="H112" s="8">
-        <v>7.36703745</v>
+        <v>7.3670374499999998</v>
       </c>
       <c r="I112" s="8">
-        <v>7.436931353</v>
+        <v>7.4369313530000003</v>
       </c>
       <c r="J112" s="8">
-        <v>7.42273842619</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>7.4227384261899996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="13">
       <c r="B113" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="8">
-        <v>0.0020447551</v>
+        <v>2.0447551000000001E-3</v>
       </c>
       <c r="D113" s="12">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E113" s="14">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F113" s="8">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G113" s="8">
-        <v>0.00204313239</v>
+        <v>2.0431323900000002E-3</v>
       </c>
       <c r="H113" s="8">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I113" s="14">
-        <v>0.0020611</v>
+        <v>2.0611000000000002E-3</v>
       </c>
       <c r="J113" s="8">
-        <v>0.00203959749</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>2.03959749E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="13">
       <c r="B114" s="18" t="s">
         <v>12</v>
       </c>
@@ -4650,28 +4657,28 @@
         <v>966.94</v>
       </c>
       <c r="D114" s="8">
-        <v>923.866283</v>
+        <v>923.86628299999995</v>
       </c>
       <c r="E114" s="8">
         <v>1047.223</v>
       </c>
       <c r="F114" s="8">
-        <v>959.03910366214</v>
+        <v>959.03910366213995</v>
       </c>
       <c r="G114" s="8">
         <v>1443.15</v>
       </c>
       <c r="H114" s="8">
-        <v>2005.17044</v>
+        <v>2005.1704400000001</v>
       </c>
       <c r="I114" s="8">
         <v>1692.8813</v>
       </c>
       <c r="J114" s="8">
-        <v>1721.62110544569</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1721.6211054456901</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="13">
       <c r="B115" s="18" t="s">
         <v>13</v>
       </c>
@@ -4679,7 +4686,7 @@
         <v>29.5</v>
       </c>
       <c r="D115" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E115" s="8">
         <v>29.1</v>
@@ -4700,7 +4707,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:23" ht="13">
       <c r="B116" s="18" t="s">
         <v>14</v>
       </c>
@@ -4708,57 +4715,57 @@
         <v>7.65</v>
       </c>
       <c r="D116" s="8">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="E116" s="8">
-        <v>7.64917828</v>
+        <v>7.6491782800000001</v>
       </c>
       <c r="F116" s="8">
-        <v>7.65007938414</v>
+        <v>7.6500793841399997</v>
       </c>
       <c r="G116" s="8">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="H116" s="8">
         <v>7.41241766</v>
       </c>
       <c r="I116" s="8">
-        <v>7.41124</v>
+        <v>7.4112400000000003</v>
       </c>
       <c r="J116" s="8">
-        <v>7.64829584183</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>7.6482958418300004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="13">
       <c r="A117" s="13">
-        <v>44413.0</v>
+        <v>44413</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="14">
-        <v>7.627</v>
+        <v>7.6269999999999998</v>
       </c>
       <c r="D117" s="14">
-        <v>7.65251995571</v>
+        <v>7.6525199557099999</v>
       </c>
       <c r="E117" s="14">
         <v>7.652208667</v>
       </c>
       <c r="F117" s="14">
-        <v>7.64203097493</v>
+        <v>7.6420309749299999</v>
       </c>
       <c r="G117" s="14">
-        <v>7.362</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="H117" s="14">
-        <v>7.33615016408</v>
+        <v>7.3361501640800002</v>
       </c>
       <c r="I117" s="14">
-        <v>7.422140967</v>
+        <v>7.4221409669999998</v>
       </c>
       <c r="J117" s="14">
-        <v>7.43162783027</v>
+        <v>7.4316278302700001</v>
       </c>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
@@ -4774,34 +4781,34 @@
       <c r="V117" s="17"/>
       <c r="W117" s="17"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:23" ht="13">
       <c r="A118" s="17"/>
       <c r="B118" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="14">
-        <v>0.0020447551</v>
+        <v>2.0447551000000001E-3</v>
       </c>
       <c r="D118" s="14">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E118" s="14">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F118" s="14">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G118" s="14">
-        <v>0.00204313239</v>
+        <v>2.0431323900000002E-3</v>
       </c>
       <c r="H118" s="14">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I118" s="14">
-        <v>0.0020611</v>
+        <v>2.0611000000000002E-3</v>
       </c>
       <c r="J118" s="14">
-        <v>0.00203959749</v>
+        <v>2.03959749E-3</v>
       </c>
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
@@ -4817,7 +4824,7 @@
       <c r="V118" s="17"/>
       <c r="W118" s="17"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:23" ht="13">
       <c r="A119" s="17"/>
       <c r="B119" s="15" t="s">
         <v>12</v>
@@ -4826,10 +4833,10 @@
         <v>1057.92</v>
       </c>
       <c r="D119" s="14">
-        <v>999.35692826701</v>
+        <v>999.35692826700995</v>
       </c>
       <c r="E119" s="14">
-        <v>994.2963</v>
+        <v>994.29629999999997</v>
       </c>
       <c r="F119" s="14">
         <v>1015.53193455652</v>
@@ -4838,7 +4845,7 @@
         <v>1996.2</v>
       </c>
       <c r="H119" s="14">
-        <v>2167.07325169339</v>
+        <v>2167.0732516933899</v>
       </c>
       <c r="I119" s="14">
         <v>1745.72</v>
@@ -4860,7 +4867,7 @@
       <c r="V119" s="17"/>
       <c r="W119" s="17"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:23" ht="13">
       <c r="A120" s="17"/>
       <c r="B120" s="15" t="s">
         <v>13</v>
@@ -4903,31 +4910,31 @@
       <c r="V120" s="17"/>
       <c r="W120" s="17"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:23" ht="13">
       <c r="A121" s="17"/>
       <c r="B121" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="14">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="D121" s="14">
-        <v>7.65225575374</v>
+        <v>7.6522557537400004</v>
       </c>
       <c r="E121" s="14">
-        <v>7.64986</v>
+        <v>7.6498600000000003</v>
       </c>
       <c r="F121" s="14">
-        <v>7.64835555686</v>
+        <v>7.6483555568600003</v>
       </c>
       <c r="G121" s="14">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="H121" s="14">
-        <v>7.41430117641</v>
+        <v>7.4143011764100004</v>
       </c>
       <c r="I121" s="14">
-        <v>7.409288</v>
+        <v>7.4092880000000001</v>
       </c>
       <c r="J121" s="14">
         <v>7.64772577953</v>
@@ -4946,85 +4953,85 @@
       <c r="V121" s="17"/>
       <c r="W121" s="17"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:23" ht="13">
       <c r="A122" s="7">
-        <v>44414.0</v>
+        <v>44414</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="8">
-        <v>7.602</v>
+        <v>7.6020000000000003</v>
       </c>
       <c r="D122" s="8">
-        <v>7.5822433412</v>
+        <v>7.5822433411999999</v>
       </c>
       <c r="E122" s="8">
-        <v>7.618</v>
+        <v>7.6180000000000003</v>
       </c>
       <c r="G122" s="8">
-        <v>7.549</v>
+        <v>7.5490000000000004</v>
       </c>
       <c r="H122" s="8">
         <v>7.40429432052</v>
       </c>
       <c r="I122" s="8">
-        <v>7.357</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>7.3570000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="13">
       <c r="B123" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="8">
-        <v>0.0020447551</v>
+        <v>2.0447551000000001E-3</v>
       </c>
       <c r="D123" s="8">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E123" s="14">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F123" s="14">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G123" s="8">
-        <v>0.00204313239</v>
+        <v>2.0431323900000002E-3</v>
       </c>
       <c r="H123" s="8">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I123" s="14">
-        <v>0.0020611</v>
+        <v>2.0611000000000002E-3</v>
       </c>
       <c r="J123" s="14">
-        <v>0.00203959749</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>2.03959749E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="13">
       <c r="B124" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="8">
-        <v>1127.84</v>
+        <v>1127.8399999999999</v>
       </c>
       <c r="D124" s="8">
-        <v>1175.33669904043</v>
+        <v>1175.3366990404299</v>
       </c>
       <c r="E124" s="8">
-        <v>1073.735</v>
+        <v>1073.7349999999999</v>
       </c>
       <c r="G124" s="8">
-        <v>1708.0</v>
+        <v>1708</v>
       </c>
       <c r="H124" s="8">
-        <v>1829.60026568925</v>
+        <v>1829.6002656892499</v>
       </c>
       <c r="I124" s="8">
-        <v>2038.448</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>2038.4480000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="13">
       <c r="B125" s="10" t="s">
         <v>13</v>
       </c>
@@ -5038,7 +5045,7 @@
         <v>29.7</v>
       </c>
       <c r="G125" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="H125" s="8">
         <v>30.1</v>
@@ -5047,59 +5054,59 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:23" ht="13">
       <c r="B126" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="8">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="D126" s="8">
-        <v>7.64875456893</v>
+        <v>7.6487545689300003</v>
       </c>
       <c r="E126" s="8">
-        <v>7.647</v>
+        <v>7.6470000000000002</v>
       </c>
       <c r="G126" s="8">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="H126" s="8">
-        <v>7.41113946123</v>
+        <v>7.4111394612300003</v>
       </c>
       <c r="I126" s="8">
-        <v>7.4095529</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>7.4095529000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="13">
       <c r="A127" s="13">
-        <v>44416.0</v>
+        <v>44416</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="14">
-        <v>7.547</v>
+        <v>7.5469999999999997</v>
       </c>
       <c r="D127" s="31">
         <v>7.56719615</v>
       </c>
       <c r="E127" s="14">
-        <v>7.604764577</v>
+        <v>7.6047645770000001</v>
       </c>
       <c r="F127" s="14">
-        <v>7.60352533542</v>
+        <v>7.6035253354199996</v>
       </c>
       <c r="G127" s="14">
         <v>7.3</v>
       </c>
       <c r="H127" s="14">
-        <v>7.47206676</v>
+        <v>7.4720667599999997</v>
       </c>
       <c r="I127" s="14">
-        <v>7.416057163</v>
+        <v>7.4160571629999996</v>
       </c>
       <c r="J127" s="14">
-        <v>7.33185404147</v>
+        <v>7.3318540414699997</v>
       </c>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
@@ -5115,34 +5122,34 @@
       <c r="V127" s="17"/>
       <c r="W127" s="17"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:23" ht="13">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="14">
-        <v>0.0020447551</v>
+        <v>2.0447551000000001E-3</v>
       </c>
       <c r="D128" s="27">
-        <v>0.00204742568</v>
+        <v>2.0474256800000002E-3</v>
       </c>
       <c r="E128" s="14">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F128" s="14">
-        <v>0.00204408091</v>
+        <v>2.04408091E-3</v>
       </c>
       <c r="G128" s="14">
-        <v>0.00204313239</v>
+        <v>2.0431323900000002E-3</v>
       </c>
       <c r="H128" s="27">
-        <v>0.00208164123</v>
+        <v>2.0816412299999999E-3</v>
       </c>
       <c r="I128" s="14">
-        <v>0.0020611</v>
+        <v>2.0611000000000002E-3</v>
       </c>
       <c r="J128" s="14">
-        <v>0.00203959749</v>
+        <v>2.03959749E-3</v>
       </c>
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
@@ -5158,16 +5165,16 @@
       <c r="V128" s="17"/>
       <c r="W128" s="17"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:23" ht="13">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="14">
-        <v>1287.89</v>
+        <v>1287.8900000000001</v>
       </c>
       <c r="D129" s="27">
-        <v>1222.11602</v>
+        <v>1222.1160199999999</v>
       </c>
       <c r="E129" s="14">
         <v>1112.19352</v>
@@ -5179,13 +5186,13 @@
         <v>2313.73</v>
       </c>
       <c r="H129" s="27">
-        <v>1561.0257</v>
+        <v>1561.0256999999999</v>
       </c>
       <c r="I129" s="14">
         <v>1773.83698</v>
       </c>
       <c r="J129" s="14">
-        <v>2115.14706196141</v>
+        <v>2115.1470619614101</v>
       </c>
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
@@ -5201,7 +5208,7 @@
       <c r="V129" s="17"/>
       <c r="W129" s="17"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:23" ht="13">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>13</v>
@@ -5244,34 +5251,34 @@
       <c r="V130" s="17"/>
       <c r="W130" s="17"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:23" ht="13">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="14">
-        <v>7.651</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="D131" s="27">
         <v>7.64988636</v>
       </c>
       <c r="E131" s="14">
-        <v>7.64851356</v>
+        <v>7.6485135599999996</v>
       </c>
       <c r="F131" s="14">
-        <v>7.64464166107</v>
+        <v>7.6446416610699996</v>
       </c>
       <c r="G131" s="14">
-        <v>7.405</v>
+        <v>7.4050000000000002</v>
       </c>
       <c r="H131" s="27">
         <v>7.41241766</v>
       </c>
       <c r="I131" s="14">
-        <v>7.40991316</v>
+        <v>7.4099131600000003</v>
       </c>
       <c r="J131" s="14">
-        <v>7.64348243937</v>
+        <v>7.6434824393699996</v>
       </c>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
@@ -5287,63 +5294,63 @@
       <c r="V131" s="17"/>
       <c r="W131" s="17"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:23" ht="13">
       <c r="A132" s="37">
-        <v>44417.0</v>
+        <v>44417</v>
       </c>
       <c r="B132" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="8">
-        <v>7.621</v>
+        <v>7.6210000000000004</v>
       </c>
       <c r="D132" s="28">
-        <v>7.64287843</v>
+        <v>7.6428784299999997</v>
       </c>
       <c r="E132" s="8">
-        <v>7.677</v>
+        <v>7.6769999999999996</v>
       </c>
       <c r="F132" s="8">
-        <v>7.67413200516</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>7.6741320051599997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="13">
       <c r="A133" s="38"/>
       <c r="B133" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="8">
-        <v>0.00208057386</v>
+        <v>2.0805738600000001E-3</v>
       </c>
       <c r="D133" s="28">
-        <v>0.00209489564</v>
+        <v>2.0948956399999999E-3</v>
       </c>
       <c r="E133" s="8">
-        <v>0.00203862</v>
+        <v>2.0386200000000001E-3</v>
       </c>
       <c r="F133" s="8">
-        <v>0.00206976717</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>2.0697671699999999E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="13">
       <c r="A134" s="38"/>
       <c r="B134" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="8">
-        <v>1063.37</v>
+        <v>1063.3699999999999</v>
       </c>
       <c r="D134" s="28">
-        <v>1043.27848</v>
+        <v>1043.2784799999999</v>
       </c>
       <c r="E134" s="8">
         <v>938.447</v>
       </c>
       <c r="F134" s="8">
-        <v>954.31647720398</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>954.31647720397996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="13">
       <c r="A135" s="38"/>
       <c r="B135" s="38" t="s">
         <v>13</v>
@@ -5361,27 +5368,27 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:23" ht="13">
       <c r="A136" s="38"/>
       <c r="B136" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C136" s="8">
-        <v>7.646</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="D136" s="28">
-        <v>7.66027192</v>
+        <v>7.6602719199999996</v>
       </c>
       <c r="E136" s="8">
         <v>7.649</v>
       </c>
       <c r="F136" s="8">
-        <v>7.6549709248</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>7.6549709247999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="13">
       <c r="A137" s="39">
-        <v>44418.0</v>
+        <v>44418</v>
       </c>
       <c r="B137" s="40" t="s">
         <v>10</v>
@@ -5390,38 +5397,38 @@
         <v>7.585</v>
       </c>
       <c r="D137" s="42">
-        <v>7.71757889</v>
+        <v>7.7175788900000004</v>
       </c>
       <c r="E137" s="8">
-        <v>7.671420667</v>
+        <v>7.6714206669999996</v>
       </c>
       <c r="F137" s="43">
-        <v>7.6291665</v>
+        <v>7.6291665000000002</v>
       </c>
       <c r="G137" s="8"/>
       <c r="I137" s="8"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:23" ht="13">
       <c r="A138" s="11"/>
       <c r="B138" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="41">
-        <v>0.00208057386</v>
+        <v>2.0805738600000001E-3</v>
       </c>
       <c r="D138" s="28">
-        <v>0.00209489564</v>
+        <v>2.0948956399999999E-3</v>
       </c>
       <c r="E138" s="8">
-        <v>0.00206590649</v>
+        <v>2.0659064899999999E-3</v>
       </c>
       <c r="F138" s="43">
-        <v>0.00206976717</v>
+        <v>2.0697671699999999E-3</v>
       </c>
       <c r="G138" s="8"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:23" ht="13">
       <c r="A139" s="11"/>
       <c r="B139" s="40" t="s">
         <v>12</v>
@@ -5430,10 +5437,10 @@
         <v>1186.68</v>
       </c>
       <c r="D139" s="42">
-        <v>862.947103</v>
+        <v>862.94710299999997</v>
       </c>
       <c r="E139" s="8">
-        <v>956.801956</v>
+        <v>956.80195600000002</v>
       </c>
       <c r="F139" s="43">
         <v>1060.28036</v>
@@ -5441,7 +5448,7 @@
       <c r="G139" s="8"/>
       <c r="I139" s="8"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:23" ht="13">
       <c r="A140" s="11"/>
       <c r="B140" s="40" t="s">
         <v>13</v>
@@ -5456,21 +5463,21 @@
         <v>29.6</v>
       </c>
       <c r="F140" s="44">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G140" s="8"/>
       <c r="I140" s="8"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:23" ht="13">
       <c r="A141" s="11"/>
       <c r="B141" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="41">
-        <v>7.655</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="D141" s="42">
-        <v>7.65743511</v>
+        <v>7.6574351099999998</v>
       </c>
       <c r="E141" s="8">
         <v>7.65332977</v>
@@ -5481,53 +5488,53 @@
       <c r="G141" s="8"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:23" ht="13">
       <c r="A142" s="39">
-        <v>44419.0</v>
+        <v>44419</v>
       </c>
       <c r="B142" s="40" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="41">
-        <v>7.599</v>
+        <v>7.5990000000000002</v>
       </c>
       <c r="D142" s="42">
-        <v>7.61717368933</v>
+        <v>7.6171736893300004</v>
       </c>
       <c r="E142" s="8">
         <v>7.54266988</v>
       </c>
       <c r="F142" s="43">
-        <v>7.61712496</v>
+        <v>7.6171249599999999</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="8">
         <v>7.47206676311</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:23" ht="13">
       <c r="A143" s="11"/>
       <c r="B143" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="41">
-        <v>0.00208057386</v>
+        <v>2.0805738600000001E-3</v>
       </c>
       <c r="D143" s="42">
-        <v>0.00209489564</v>
+        <v>2.0948956399999999E-3</v>
       </c>
       <c r="E143" s="8">
-        <v>0.00206590649</v>
+        <v>2.0659064899999999E-3</v>
       </c>
       <c r="F143" s="43">
-        <v>0.00206976717</v>
+        <v>2.0697671699999999E-3</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8">
-        <v>0.00208164123</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2.0816412299999999E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="13">
       <c r="A144" s="11"/>
       <c r="B144" s="40" t="s">
         <v>12</v>
@@ -5542,14 +5549,14 @@
         <v>1298.56087</v>
       </c>
       <c r="F144" s="43">
-        <v>1090.23491</v>
+        <v>1090.2349099999999</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="8">
-        <v>1561.02569461001</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>1561.0256946100101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="13">
       <c r="A145" s="11"/>
       <c r="B145" s="40" t="s">
         <v>13</v>
@@ -5571,216 +5578,290 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" ht="13">
       <c r="A146" s="11"/>
       <c r="B146" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C146" s="41">
-        <v>7.656</v>
+        <v>7.6559999999999997</v>
       </c>
       <c r="D146" s="42">
-        <v>7.65854340719</v>
+        <v>7.6585434071899998</v>
       </c>
       <c r="E146" s="8">
         <v>7.65332977</v>
       </c>
       <c r="F146" s="43">
-        <v>7.65247785</v>
+        <v>7.6524778500000004</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="8">
-        <v>7.41241766465</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>7.4124176646500004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="13">
       <c r="A147" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="8">
-        <v>1090.675525</v>
+        <v>1090.6755250000001</v>
       </c>
       <c r="D147" s="8">
-        <v>1124.036444168</v>
+        <v>1124.0364441679999</v>
       </c>
       <c r="E147" s="8">
-        <v>987.124970826087</v>
+        <v>987.12497082608695</v>
       </c>
       <c r="F147" s="10">
         <f>(F134+F129+F119+F114+F109+F104+F99+F94+F89+F84+F79+F74+F69+F64+F59+F54+F49+F44+F39+F29+F24+F19+F14+F4)/24</f>
-        <v>1048.697686</v>
+        <v>1048.6976861866581</v>
       </c>
       <c r="G147" s="8">
-        <v>1747.46333195833</v>
+        <v>1747.4633319583299</v>
       </c>
       <c r="H147" s="10">
         <f>AVERAGE(H124,H119,H114,H109,H104,H99,H94,H89,H84,H79,H74,H69,H64,H59,H54,H49,H44,H34,H29,H24,H19,H14,H9,H4)</f>
-        <v>1849.3656</v>
+        <v>1849.3656001009533</v>
       </c>
       <c r="I147" s="8">
-        <v>1838.64683227273</v>
+        <v>1838.6468322727301</v>
       </c>
       <c r="J147" s="10">
         <f>(J129+J119+J114+J109+J104+J99+J94+J89+J84+J79+J74+J69+J64+J59+J54+J49+J44+J39+J29+J24+J19+J14+J4)/23</f>
-        <v>1780.389243</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>1780.3892430127057</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="13">
       <c r="A150" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="10">
         <f>_xlfn.STDEV.S(C4,C9,C14,C19,C24,C29,C34,C39,C44,C49,C59,C64,C69,C74,C79,C84,C89,C94,C99,C104,C109,C114,C119,C124)</f>
-        <v>230.9653422</v>
+        <v>230.96534224696762</v>
       </c>
       <c r="D150" s="10">
         <f>_xlfn.STDEV.S(D124,D119,D114,D109,D104,D99,D94,D89,D84,D79,D74,D69,D64,D59,D54,D49,D44,D39,D34,D29,D24,D19,D14,D9,D4)</f>
-        <v>243.3027557</v>
+        <v>243.30275567430252</v>
       </c>
       <c r="E150" s="10">
-        <f t="shared" ref="E150:F150" si="1">_xlfn.STDEV.S(E119,E109,E104,E99,E94,E89,E84,E79,E74,E69,E64,E59,E54,E49,E44,E39,E34,E29,E24,E19,E14,E9,E4)</f>
-        <v>139.4055062</v>
+        <f t="shared" ref="E150:F150" si="0">_xlfn.STDEV.S(E119,E109,E104,E99,E94,E89,E84,E79,E74,E69,E64,E59,E54,E49,E44,E39,E34,E29,E24,E19,E14,E9,E4)</f>
+        <v>139.4055061733649</v>
       </c>
       <c r="F150" s="10">
-        <f t="shared" si="1"/>
-        <v>122.5021218</v>
+        <f t="shared" si="0"/>
+        <v>122.50212179776909</v>
       </c>
       <c r="G150" s="10">
         <f>_xlfn.STDEV.S(G124,G119,G114,G109,G109,G104,G99,G94,G89,G84,G79,G74,G69,G64,G59,G49,G44,G39,G34,G29,G24,G19,G14,G9,G4)</f>
-        <v>220.6726572</v>
+        <v>220.672657200451</v>
       </c>
       <c r="H150" s="10">
         <f>_xlfn.STDEV.S(H124,H119,H114,H109,H104,H99,H94,H89,H84,H79,H74,H69,H64,H59,H54,H49,H44,H34,H29,H24,H19,H14,H9,H4)</f>
-        <v>307.8073954</v>
+        <v>307.80739538997074</v>
       </c>
       <c r="I150" s="10">
-        <f t="shared" ref="I150:J150" si="2">_xlfn.STDEV.S(I119,I109,I104,I99,I94,I89,I84,I79,I74,I69,I64,I59,I54,I49,I44,I39,I34,I29,I24,I19,I14,I9,I4)</f>
-        <v>441.7117658</v>
+        <f t="shared" ref="I150:J150" si="1">_xlfn.STDEV.S(I119,I109,I104,I99,I94,I89,I84,I79,I74,I69,I64,I59,I54,I49,I44,I39,I34,I29,I24,I19,I14,I9,I4)</f>
+        <v>441.71176578241341</v>
       </c>
       <c r="J150" s="10">
-        <f t="shared" si="2"/>
-        <v>242.180738</v>
-      </c>
-    </row>
-    <row r="152">
+        <f t="shared" si="1"/>
+        <v>242.18073795059451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="13">
       <c r="A152" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C152" s="10">
         <f>AVERAGE(C2,C7,C12,C17,C22,C27,C32,C37,C42,C47,C57,C62,C67,C72,C77,C82,C87,C92,C97,C102,C107,C112,C117,C122,C127)</f>
-        <v>7.614575746</v>
+        <v>7.6145757461600008</v>
       </c>
       <c r="D152" s="10">
         <f>AVERAGE(D2,D7,D11,D17,D22,D27,D32,D37,D42,D47,D52,D57,D62,D67,D72,D82,D87,D92,D97,D102,D107,D112,D117,D122,D127)</f>
-        <v>7.608452207</v>
+        <v>7.6084522069395994</v>
       </c>
       <c r="E152" s="10">
-        <f t="shared" ref="E152:F152" si="3">AVERAGE(E2,E7,E12,E17,E22,E27,E32,E37,E42,E47,E52,E57,E62,E67,E72,E77,E82,E87,E92,E97,E102,E107,E112,E117,E127)</f>
-        <v>7.649499332</v>
+        <f t="shared" ref="E152:F152" si="2">AVERAGE(E2,E7,E12,E17,E22,E27,E32,E37,E42,E47,E52,E57,E62,E67,E72,E77,E82,E87,E92,E97,E102,E107,E112,E117,E127)</f>
+        <v>7.6494993320399995</v>
       </c>
       <c r="F152" s="10">
-        <f t="shared" si="3"/>
-        <v>7.622229811</v>
+        <f t="shared" si="2"/>
+        <v>7.6222298113920823</v>
       </c>
       <c r="G152" s="10">
         <f>AVERAGE(G2,G7,G12,G17,G22,G27,G32,G37,G42,G47,G57,G62,G67,G72,G77,G82,G87,G92,G97,G102,G107,G112,G117,G122,G127)</f>
-        <v>7.419953598</v>
+        <v>7.4199535976000002</v>
       </c>
       <c r="H152" s="10">
         <f>AVERAGE(H2,H7,H12,H17,H22,H27,H32,H37,H42,H47,H52,H57,H62,H67,H72,H77,H82,H87,H92,H97,H102,H107,H112,H117,H122)</f>
-        <v>7.40487015</v>
+        <v>7.4048701500904173</v>
       </c>
       <c r="I152" s="10">
         <f>AVERAGE(I2,I7,I12,I17,I22,I27,I32,I37,I42,I47,I52,I57,I62,I72,I77,I82,I87,I92,I97,I102,I107,I112,I117,I127)</f>
-        <v>7.418005395</v>
+        <v>7.4180053951249993</v>
       </c>
       <c r="J152" s="10">
-        <f>AVERAGE(J2,J7,J12, J17,J22,J27,J32,J37,J42,J47,J52,J57,J62,J67,J72,J77,J82,J87,J92,J97,J102,J107,J112,J117,J122,J127) </f>
-        <v>7.418701511</v>
-      </c>
-    </row>
-    <row r="154">
+        <f>AVERAGE(J2,J7,J12, J17,J22,J27,J32,J37,J42,J47,J52,J57,J62,J67,J72,J77,J82,J87,J92,J97,J102,J107,J112,J117,J122,J127)</f>
+        <v>7.4187015114254153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="13">
       <c r="A154" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C154" s="10">
         <f>AVERAGE(C3,C18,C48,C73,C108)</f>
-        <v>0.002038644174</v>
+        <v>2.0386441740000002E-3</v>
       </c>
       <c r="D154" s="10">
         <f>AVERAGE(D3,D8,D18,D23,D28,D33,D38,D43,D48,D53,D58,D63,D68,D73,D78,D83,D88,D93,D98,D103,D108,D113,D118,D123,D128)</f>
-        <v>0.002051493957</v>
+        <v>2.0514939568000001E-3</v>
       </c>
       <c r="E154" s="10">
-        <f t="shared" ref="E154:F154" si="4">AVERAGE(E128,E123,E118,E113,E108,E103,E98,E93,E88,E83,E78,E73,E68,E63,E58,E53,E43,E38,E33,E28,E23,E18,E13,E8,E3)</f>
-        <v>0.002048153603</v>
+        <f t="shared" ref="E154:F154" si="3">AVERAGE(E128,E123,E118,E113,E108,E103,E98,E93,E88,E83,E78,E73,E68,E63,E58,E53,E43,E38,E33,E28,E23,E18,E13,E8,E3)</f>
+        <v>2.0481536031999995E-3</v>
       </c>
       <c r="F154" s="10">
-        <f t="shared" si="4"/>
-        <v>0.002011400228</v>
+        <f t="shared" si="3"/>
+        <v>2.0114002279999995E-3</v>
       </c>
       <c r="G154" s="10">
-        <f>Average(G3,G18,G48,G73,G108)</f>
-        <v>0.002050268662</v>
+        <f>AVERAGE(G3,G18,G48,G73,G108)</f>
+        <v>2.050268662E-3</v>
       </c>
       <c r="H154" s="10">
         <f>AVERAGE(H3,H13,H43,H73,H103)</f>
-        <v>0.002071507246</v>
+        <v>2.0715072459999997E-3</v>
       </c>
       <c r="I154" s="10">
         <f>AVERAGE(I3,I18,I48,I78,I108)</f>
-        <v>0.002046908698</v>
+        <v>2.0469086979999999E-3</v>
       </c>
       <c r="J154" s="10">
         <f>AVERAGE(J3,J13,J43,J78,J103)</f>
-        <v>0.002044479336</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" s="8" t="s">
+        <v>2.044479336E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="13">
+      <c r="A156" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" s="46">
+        <f>STDEV((C3,C18,C48,C73,C108))</f>
+        <v>3.4349873290241295E-5</v>
+      </c>
+      <c r="D156" s="46">
+        <f>STDEV((D3,D18,D48,D73,D108))</f>
+        <v>1.0487785499263871E-5</v>
+      </c>
+      <c r="E156" s="46">
+        <f>STDEV((E3,E18,E48,E73,E108))</f>
+        <v>2.5762151771955621E-5</v>
+      </c>
+      <c r="F156" s="46">
+        <f>STDEV((F3,F18,F48,F73,F108))</f>
+        <v>5.8150690562715013E-5</v>
+      </c>
+      <c r="G156" s="46">
+        <f>STDEV((G3,G18,G48,G73,G108))</f>
+        <v>2.2421574103083453E-5</v>
+      </c>
+      <c r="H156" s="46">
+        <f>STDEV((H3,H18,H48,H73,H108))</f>
+        <v>2.471748972069436E-5</v>
+      </c>
+      <c r="I156" s="46">
+        <f>STDEV((I3,I18,I48,I73,I108))</f>
+        <v>2.1473081944053142E-5</v>
+      </c>
+      <c r="J156" s="46">
+        <f>STDEV((J3,J18,J48,J73,J108))</f>
+        <v>3.4412414109266994E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A158" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <f>(C156/C154)*100</f>
+        <v>1.684937162076882</v>
+      </c>
+      <c r="D158">
+        <f t="shared" ref="D158:J158" si="4">(D156/D154)*100</f>
+        <v>0.51122673135353147</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>1.2578232282825508</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="4"/>
+        <v>2.891055184006623</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>1.0935920018019303</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="4"/>
+        <v>1.1932128052374849</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="4"/>
+        <v>1.0490493281421946</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="4"/>
+        <v>1.6831871813678723</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="13">
+      <c r="B160" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C156" s="10">
-        <f>average(C152,D152,E152,F152)</f>
-        <v>7.623689274</v>
-      </c>
-      <c r="E156" s="8" t="s">
+      <c r="C160" s="10">
+        <f>AVERAGE(C152,D152,E152,F152)</f>
+        <v>7.6236892741329196</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F156" s="10">
+      <c r="F160" s="10">
         <f>AVERAGE(J152,I152,H152,G152)</f>
-        <v>7.415382664</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" s="8" t="s">
+        <v>7.4153826635602078</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="13">
+      <c r="B162" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="10">
-        <f>average(C154,D154,E154,F154)</f>
-        <v>0.002037422991</v>
-      </c>
-      <c r="F158" s="10">
+      <c r="C162" s="10">
+        <f>AVERAGE(C154,D154,E154,F154)</f>
+        <v>2.0374229904999998E-3</v>
+      </c>
+      <c r="F162" s="10">
         <f>AVERAGE(G154,H154,I154,J154)</f>
-        <v>0.002053290986</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" s="8" t="s">
+        <v>2.0532909854999999E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="13">
+      <c r="B164" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C164" s="8">
         <f>AVERAGE(C147,D147,E147,F147)</f>
-        <v>1062.633657</v>
-      </c>
-      <c r="F160" s="10">
+        <v>1062.6336565451863</v>
+      </c>
+      <c r="F164" s="10">
         <f>AVERAGE(J147,I147,H147,G147)</f>
-        <v>1803.966252</v>
+        <v>1803.9662518361797</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>